--- a/temp_doc/DATA SISWA.xlsx
+++ b/temp_doc/DATA SISWA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB7B50-6C65-D14C-8666-A134B6757CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483ECAF-FD34-EE4C-920F-520AC5F4B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25288,7 +25288,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>10652</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>10653</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>10654</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>10655</v>
       </c>
@@ -25392,7 +25392,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>10656</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>10657</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>10658</v>
       </c>
@@ -25470,7 +25470,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>10659</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>10660</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>10661</v>
       </c>
@@ -25548,7 +25548,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>10662</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>10663</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>10664</v>
       </c>
@@ -25626,7 +25626,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>10665</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>10666</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>10667</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>10668</v>
       </c>
@@ -25730,7 +25730,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>10669</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>10670</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>10671</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>10672</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>10673</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>10674</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>10675</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>10676</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>10677</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>10678</v>
       </c>
@@ -25990,7 +25990,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>10679</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>10680</v>
       </c>
@@ -26042,7 +26042,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>10681</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>10682</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>10683</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>10684</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>10685</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>10686</v>
       </c>
@@ -26198,7 +26198,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>10687</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>10688</v>
       </c>
@@ -26250,7 +26250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>10689</v>
       </c>
@@ -26276,7 +26276,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>10690</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>10691</v>
       </c>
@@ -26336,6 +26336,11 @@
         <filter val="XII TKJ 3"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2022"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp_doc/DATA SISWA.xlsx
+++ b/temp_doc/DATA SISWA.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bkk\temp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78FD7F4-C01E-F446-AB9E-A13C35E57432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD0C0F-704C-4502-9AA3-C7C456DEA643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$516</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8285" uniqueCount="2960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2960">
   <si>
     <t>id</t>
   </si>
@@ -9355,32 +9354,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}">
   <dimension ref="A1:O576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K495" workbookViewId="0">
-      <selection activeCell="R531" sqref="R531"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="159.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="159.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -9803,7 +9802,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10010</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10012</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10013</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10014</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10015</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10016</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10017</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10018</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10020</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10021</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10022</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10023</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10024</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10025</v>
       </c>
@@ -10461,7 +10460,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10027</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10028</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10029</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10030</v>
       </c>
@@ -10649,7 +10648,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10033</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10034</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10036</v>
       </c>
@@ -10790,7 +10789,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10037</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10038</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10040</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10042</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10045</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10046</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10047</v>
       </c>
@@ -11119,7 +11118,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10048</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10049</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10051</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10052</v>
       </c>
@@ -11307,7 +11306,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10053</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10054</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10055</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10056</v>
       </c>
@@ -11495,7 +11494,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10057</v>
       </c>
@@ -11542,7 +11541,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10058</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10059</v>
       </c>
@@ -11636,7 +11635,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10060</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10061</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10062</v>
       </c>
@@ -11777,7 +11776,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10063</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10065</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10068</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10069</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10070</v>
       </c>
@@ -12012,7 +12011,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10071</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10072</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10073</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10074</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10075</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10077</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10079</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10080</v>
       </c>
@@ -12388,7 +12387,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10081</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10082</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10083</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10084</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10085</v>
       </c>
@@ -12623,7 +12622,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10087</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10088</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10089</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10090</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10091</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10092</v>
       </c>
@@ -12905,7 +12904,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10093</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10094</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10095</v>
       </c>
@@ -13046,7 +13045,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10096</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10097</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10098</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10099</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10100</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10101</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10102</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10103</v>
       </c>
@@ -13422,7 +13421,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10104</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10105</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10106</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10107</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10108</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10109</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10110</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10111</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10112</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10113</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10114</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10118</v>
       </c>
@@ -13986,7 +13985,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10119</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10120</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10121</v>
       </c>
@@ -14127,7 +14126,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10122</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10123</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10124</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10127</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10128</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10130</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10132</v>
       </c>
@@ -14456,7 +14455,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10133</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10134</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10135</v>
       </c>
@@ -14597,7 +14596,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10136</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10137</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10138</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10139</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10140</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10141</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10142</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10143</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10144</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10145</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10146</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10147</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10148</v>
       </c>
@@ -15208,7 +15207,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>10150</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10151</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>10152</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10154</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10155</v>
       </c>
@@ -15443,7 +15442,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10157</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10159</v>
       </c>
@@ -15537,7 +15536,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10160</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10161</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>10162</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>10165</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10166</v>
       </c>
@@ -15772,7 +15771,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10167</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10168</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10171</v>
       </c>
@@ -15913,7 +15912,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10176</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10177</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10183</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10184</v>
       </c>
@@ -16101,7 +16100,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>10187</v>
       </c>
@@ -16148,7 +16147,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10188</v>
       </c>
@@ -16195,7 +16194,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10189</v>
       </c>
@@ -16242,7 +16241,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10193</v>
       </c>
@@ -16289,7 +16288,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10194</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10195</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10197</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10198</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10199</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10201</v>
       </c>
@@ -16571,7 +16570,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10202</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10203</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10204</v>
       </c>
@@ -16712,7 +16711,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10205</v>
       </c>
@@ -16759,7 +16758,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10206</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10207</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10208</v>
       </c>
@@ -16900,7 +16899,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10209</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>10211</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>10212</v>
       </c>
@@ -17041,7 +17040,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10213</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10214</v>
       </c>
@@ -17135,7 +17134,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10215</v>
       </c>
@@ -17182,7 +17181,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10216</v>
       </c>
@@ -17229,7 +17228,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10217</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>10218</v>
       </c>
@@ -17323,7 +17322,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10219</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>10220</v>
       </c>
@@ -17417,7 +17416,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>10221</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10222</v>
       </c>
@@ -17511,7 +17510,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10223</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>10224</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>10225</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10226</v>
       </c>
@@ -17699,7 +17698,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10227</v>
       </c>
@@ -17746,7 +17745,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>10228</v>
       </c>
@@ -17793,7 +17792,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10229</v>
       </c>
@@ -17840,7 +17839,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>10230</v>
       </c>
@@ -17887,7 +17886,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10231</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>10232</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>10233</v>
       </c>
@@ -18028,7 +18027,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10234</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10235</v>
       </c>
@@ -18122,7 +18121,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10236</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>10237</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>10238</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>10239</v>
       </c>
@@ -18310,7 +18309,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10240</v>
       </c>
@@ -18357,7 +18356,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>10241</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>10242</v>
       </c>
@@ -18451,7 +18450,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>10244</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10245</v>
       </c>
@@ -18545,7 +18544,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>10246</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10248</v>
       </c>
@@ -18639,7 +18638,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10249</v>
       </c>
@@ -18686,7 +18685,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10250</v>
       </c>
@@ -18733,7 +18732,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10251</v>
       </c>
@@ -18780,7 +18779,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10252</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10253</v>
       </c>
@@ -18874,7 +18873,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10254</v>
       </c>
@@ -18921,7 +18920,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10257</v>
       </c>
@@ -18968,7 +18967,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10258</v>
       </c>
@@ -19015,7 +19014,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10259</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10260</v>
       </c>
@@ -19109,7 +19108,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10261</v>
       </c>
@@ -19156,7 +19155,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10262</v>
       </c>
@@ -19203,7 +19202,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10263</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10264</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10265</v>
       </c>
@@ -19344,7 +19343,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>10266</v>
       </c>
@@ -19391,7 +19390,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>10268</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10269</v>
       </c>
@@ -19485,7 +19484,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10270</v>
       </c>
@@ -19532,7 +19531,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10271</v>
       </c>
@@ -19579,7 +19578,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10272</v>
       </c>
@@ -19626,7 +19625,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10275</v>
       </c>
@@ -19673,7 +19672,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>10276</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10277</v>
       </c>
@@ -19767,7 +19766,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>10278</v>
       </c>
@@ -19814,7 +19813,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>10279</v>
       </c>
@@ -19861,7 +19860,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>10284</v>
       </c>
@@ -19908,7 +19907,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10291</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10292</v>
       </c>
@@ -20002,7 +20001,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>10293</v>
       </c>
@@ -20049,7 +20048,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10294</v>
       </c>
@@ -20096,7 +20095,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>10295</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>10296</v>
       </c>
@@ -20190,7 +20189,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>10297</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>10299</v>
       </c>
@@ -20284,7 +20283,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10300</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10301</v>
       </c>
@@ -20378,7 +20377,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10302</v>
       </c>
@@ -20425,7 +20424,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10303</v>
       </c>
@@ -20472,7 +20471,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>10304</v>
       </c>
@@ -20519,7 +20518,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>10305</v>
       </c>
@@ -20566,7 +20565,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>10307</v>
       </c>
@@ -20613,7 +20612,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>10308</v>
       </c>
@@ -20660,7 +20659,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>10312</v>
       </c>
@@ -20707,7 +20706,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>10314</v>
       </c>
@@ -20754,7 +20753,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>10315</v>
       </c>
@@ -20801,7 +20800,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10316</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>10320</v>
       </c>
@@ -20895,7 +20894,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>10321</v>
       </c>
@@ -20942,7 +20941,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>10325</v>
       </c>
@@ -20989,7 +20988,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10328</v>
       </c>
@@ -21036,7 +21035,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>10329</v>
       </c>
@@ -21083,7 +21082,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>10331</v>
       </c>
@@ -21130,7 +21129,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>10332</v>
       </c>
@@ -21177,7 +21176,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>10334</v>
       </c>
@@ -21224,7 +21223,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>10335</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>10337</v>
       </c>
@@ -21318,7 +21317,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>10338</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>10339</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>10340</v>
       </c>
@@ -21459,7 +21458,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>10341</v>
       </c>
@@ -21506,7 +21505,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>10342</v>
       </c>
@@ -21553,7 +21552,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>10344</v>
       </c>
@@ -21600,7 +21599,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>10345</v>
       </c>
@@ -21647,7 +21646,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>10347</v>
       </c>
@@ -21694,7 +21693,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>10349</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>10350</v>
       </c>
@@ -21788,7 +21787,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>10351</v>
       </c>
@@ -21835,7 +21834,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>10352</v>
       </c>
@@ -21882,7 +21881,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>10353</v>
       </c>
@@ -21929,7 +21928,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>10355</v>
       </c>
@@ -21976,7 +21975,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>10356</v>
       </c>
@@ -22023,7 +22022,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>10357</v>
       </c>
@@ -22070,7 +22069,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>10358</v>
       </c>
@@ -22117,7 +22116,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>10359</v>
       </c>
@@ -22164,7 +22163,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>10362</v>
       </c>
@@ -22211,7 +22210,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>10363</v>
       </c>
@@ -22258,7 +22257,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>10364</v>
       </c>
@@ -22305,7 +22304,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>10365</v>
       </c>
@@ -22352,7 +22351,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>10366</v>
       </c>
@@ -22399,7 +22398,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>10367</v>
       </c>
@@ -22446,7 +22445,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>10368</v>
       </c>
@@ -22493,7 +22492,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>10369</v>
       </c>
@@ -22540,7 +22539,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10370</v>
       </c>
@@ -22587,7 +22586,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>10371</v>
       </c>
@@ -22634,7 +22633,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>10373</v>
       </c>
@@ -22681,7 +22680,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>10374</v>
       </c>
@@ -22728,7 +22727,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>10375</v>
       </c>
@@ -22775,7 +22774,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>10376</v>
       </c>
@@ -22822,7 +22821,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>10379</v>
       </c>
@@ -22869,7 +22868,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>10380</v>
       </c>
@@ -22916,7 +22915,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>10382</v>
       </c>
@@ -22963,7 +22962,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10384</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>10385</v>
       </c>
@@ -23057,7 +23056,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10386</v>
       </c>
@@ -23104,7 +23103,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>10387</v>
       </c>
@@ -23151,7 +23150,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10388</v>
       </c>
@@ -23198,7 +23197,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>10389</v>
       </c>
@@ -23245,7 +23244,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>10390</v>
       </c>
@@ -23292,7 +23291,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>10391</v>
       </c>
@@ -23339,7 +23338,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>10392</v>
       </c>
@@ -23386,7 +23385,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>10394</v>
       </c>
@@ -23433,7 +23432,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>10395</v>
       </c>
@@ -23480,7 +23479,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>10396</v>
       </c>
@@ -23527,7 +23526,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>10398</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>10399</v>
       </c>
@@ -23621,7 +23620,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>10401</v>
       </c>
@@ -23668,7 +23667,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>10402</v>
       </c>
@@ -23715,7 +23714,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>10405</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>10406</v>
       </c>
@@ -23809,7 +23808,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10408</v>
       </c>
@@ -23856,7 +23855,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>10409</v>
       </c>
@@ -23903,7 +23902,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10410</v>
       </c>
@@ -23950,7 +23949,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>10411</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>10412</v>
       </c>
@@ -24044,7 +24043,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>10413</v>
       </c>
@@ -24091,7 +24090,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10414</v>
       </c>
@@ -24138,7 +24137,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>10415</v>
       </c>
@@ -24185,7 +24184,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>10416</v>
       </c>
@@ -24232,7 +24231,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10417</v>
       </c>
@@ -24279,7 +24278,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>10418</v>
       </c>
@@ -24326,7 +24325,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>10419</v>
       </c>
@@ -24373,7 +24372,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>10420</v>
       </c>
@@ -24420,7 +24419,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>10421</v>
       </c>
@@ -24467,7 +24466,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>10422</v>
       </c>
@@ -24514,7 +24513,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>10423</v>
       </c>
@@ -24561,7 +24560,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>10424</v>
       </c>
@@ -24608,7 +24607,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>10425</v>
       </c>
@@ -24655,7 +24654,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>10426</v>
       </c>
@@ -24702,7 +24701,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>10427</v>
       </c>
@@ -24749,7 +24748,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>10428</v>
       </c>
@@ -24796,7 +24795,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>10429</v>
       </c>
@@ -24843,7 +24842,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10430</v>
       </c>
@@ -24890,7 +24889,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>10431</v>
       </c>
@@ -24937,7 +24936,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>10432</v>
       </c>
@@ -24984,7 +24983,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>10434</v>
       </c>
@@ -25031,7 +25030,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10435</v>
       </c>
@@ -25078,7 +25077,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>10436</v>
       </c>
@@ -25125,7 +25124,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10438</v>
       </c>
@@ -25172,7 +25171,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>10439</v>
       </c>
@@ -25219,7 +25218,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>10440</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>10441</v>
       </c>
@@ -25313,7 +25312,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>10442</v>
       </c>
@@ -25360,7 +25359,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>10443</v>
       </c>
@@ -25407,7 +25406,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>10444</v>
       </c>
@@ -25454,7 +25453,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>10447</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>10448</v>
       </c>
@@ -25548,7 +25547,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>10450</v>
       </c>
@@ -25595,7 +25594,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>10451</v>
       </c>
@@ -25642,7 +25641,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>10453</v>
       </c>
@@ -25689,7 +25688,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>10454</v>
       </c>
@@ -25736,7 +25735,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>10455</v>
       </c>
@@ -25783,7 +25782,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>10456</v>
       </c>
@@ -25830,7 +25829,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>10459</v>
       </c>
@@ -25877,7 +25876,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>10460</v>
       </c>
@@ -25924,7 +25923,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>10461</v>
       </c>
@@ -25971,7 +25970,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>10462</v>
       </c>
@@ -26018,7 +26017,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>10463</v>
       </c>
@@ -26065,7 +26064,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>10465</v>
       </c>
@@ -26112,7 +26111,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>10466</v>
       </c>
@@ -26159,7 +26158,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>10467</v>
       </c>
@@ -26206,7 +26205,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>10470</v>
       </c>
@@ -26253,7 +26252,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>10471</v>
       </c>
@@ -26300,7 +26299,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>10472</v>
       </c>
@@ -26347,7 +26346,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>10474</v>
       </c>
@@ -26394,7 +26393,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>10475</v>
       </c>
@@ -26441,7 +26440,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>10477</v>
       </c>
@@ -26488,7 +26487,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>10478</v>
       </c>
@@ -26535,7 +26534,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>10479</v>
       </c>
@@ -26582,7 +26581,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>10480</v>
       </c>
@@ -26629,7 +26628,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>10481</v>
       </c>
@@ -26676,7 +26675,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10482</v>
       </c>
@@ -26723,7 +26722,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10483</v>
       </c>
@@ -26770,7 +26769,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10486</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10489</v>
       </c>
@@ -26864,7 +26863,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>10490</v>
       </c>
@@ -26911,7 +26910,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>10491</v>
       </c>
@@ -26958,7 +26957,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>10493</v>
       </c>
@@ -27005,7 +27004,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>10494</v>
       </c>
@@ -27052,7 +27051,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>10496</v>
       </c>
@@ -27099,7 +27098,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>10497</v>
       </c>
@@ -27146,7 +27145,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>10499</v>
       </c>
@@ -27193,7 +27192,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>10502</v>
       </c>
@@ -27240,7 +27239,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>10503</v>
       </c>
@@ -27287,7 +27286,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>10504</v>
       </c>
@@ -27334,7 +27333,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>10505</v>
       </c>
@@ -27381,7 +27380,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>10506</v>
       </c>
@@ -27428,7 +27427,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>10507</v>
       </c>
@@ -27475,7 +27474,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>10508</v>
       </c>
@@ -27522,7 +27521,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>10509</v>
       </c>
@@ -27569,7 +27568,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>10510</v>
       </c>
@@ -27616,7 +27615,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>10511</v>
       </c>
@@ -27663,7 +27662,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>10512</v>
       </c>
@@ -27710,7 +27709,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10513</v>
       </c>
@@ -27757,7 +27756,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>10514</v>
       </c>
@@ -27804,7 +27803,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>10515</v>
       </c>
@@ -27851,7 +27850,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>10516</v>
       </c>
@@ -27898,7 +27897,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>10518</v>
       </c>
@@ -27945,7 +27944,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>10520</v>
       </c>
@@ -27992,7 +27991,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>10523</v>
       </c>
@@ -28039,7 +28038,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>10524</v>
       </c>
@@ -28086,7 +28085,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>10525</v>
       </c>
@@ -28133,7 +28132,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>10526</v>
       </c>
@@ -28180,7 +28179,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>10527</v>
       </c>
@@ -28227,7 +28226,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>10528</v>
       </c>
@@ -28274,7 +28273,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>10529</v>
       </c>
@@ -28321,7 +28320,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10530</v>
       </c>
@@ -28368,7 +28367,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>10531</v>
       </c>
@@ -28415,7 +28414,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>10532</v>
       </c>
@@ -28462,7 +28461,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10533</v>
       </c>
@@ -28509,7 +28508,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>10534</v>
       </c>
@@ -28556,7 +28555,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>10535</v>
       </c>
@@ -28603,7 +28602,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>10536</v>
       </c>
@@ -28650,7 +28649,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>10537</v>
       </c>
@@ -28697,7 +28696,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>10538</v>
       </c>
@@ -28744,7 +28743,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>10539</v>
       </c>
@@ -28791,7 +28790,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>10540</v>
       </c>
@@ -28838,7 +28837,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>10541</v>
       </c>
@@ -28885,7 +28884,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>10542</v>
       </c>
@@ -28932,7 +28931,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>10543</v>
       </c>
@@ -28979,7 +28978,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>10544</v>
       </c>
@@ -29026,7 +29025,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>10545</v>
       </c>
@@ -29073,7 +29072,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>10546</v>
       </c>
@@ -29120,7 +29119,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>10547</v>
       </c>
@@ -29167,7 +29166,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>10548</v>
       </c>
@@ -29214,7 +29213,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>10549</v>
       </c>
@@ -29261,7 +29260,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>10550</v>
       </c>
@@ -29308,7 +29307,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>10552</v>
       </c>
@@ -29355,7 +29354,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>10554</v>
       </c>
@@ -29402,7 +29401,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>10555</v>
       </c>
@@ -29449,7 +29448,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>10557</v>
       </c>
@@ -29496,7 +29495,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>10558</v>
       </c>
@@ -29543,7 +29542,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>10559</v>
       </c>
@@ -29590,7 +29589,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>10560</v>
       </c>
@@ -29637,7 +29636,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>10561</v>
       </c>
@@ -29684,7 +29683,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>10562</v>
       </c>
@@ -29731,7 +29730,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>10563</v>
       </c>
@@ -29778,7 +29777,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>10567</v>
       </c>
@@ -29825,7 +29824,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>10568</v>
       </c>
@@ -29872,7 +29871,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>10570</v>
       </c>
@@ -29919,7 +29918,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>10571</v>
       </c>
@@ -29966,7 +29965,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>10572</v>
       </c>
@@ -30013,7 +30012,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>10573</v>
       </c>
@@ -30060,7 +30059,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10574</v>
       </c>
@@ -30107,7 +30106,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>10575</v>
       </c>
@@ -30154,7 +30153,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>10576</v>
       </c>
@@ -30201,7 +30200,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>10579</v>
       </c>
@@ -30248,7 +30247,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>10580</v>
       </c>
@@ -30295,7 +30294,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>10582</v>
       </c>
@@ -30342,7 +30341,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>10583</v>
       </c>
@@ -30389,7 +30388,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>10584</v>
       </c>
@@ -30436,7 +30435,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>10587</v>
       </c>
@@ -30483,7 +30482,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>10590</v>
       </c>
@@ -30530,7 +30529,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>10592</v>
       </c>
@@ -30577,7 +30576,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>10593</v>
       </c>
@@ -30624,7 +30623,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>10595</v>
       </c>
@@ -30671,7 +30670,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>10596</v>
       </c>
@@ -30718,7 +30717,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>10597</v>
       </c>
@@ -30765,7 +30764,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>10600</v>
       </c>
@@ -30812,7 +30811,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>10601</v>
       </c>
@@ -30859,7 +30858,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>10604</v>
       </c>
@@ -30906,7 +30905,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>10605</v>
       </c>
@@ -30953,7 +30952,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>10606</v>
       </c>
@@ -31000,7 +30999,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>10607</v>
       </c>
@@ -31047,7 +31046,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>10608</v>
       </c>
@@ -31094,7 +31093,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>10609</v>
       </c>
@@ -31141,7 +31140,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>10611</v>
       </c>
@@ -31188,7 +31187,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>10612</v>
       </c>
@@ -31235,7 +31234,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>10614</v>
       </c>
@@ -31282,7 +31281,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>10617</v>
       </c>
@@ -31329,7 +31328,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>10618</v>
       </c>
@@ -31376,7 +31375,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>10619</v>
       </c>
@@ -31423,7 +31422,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>10620</v>
       </c>
@@ -31470,7 +31469,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>10621</v>
       </c>
@@ -31517,7 +31516,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>10622</v>
       </c>
@@ -31564,7 +31563,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>10623</v>
       </c>
@@ -31611,7 +31610,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>10625</v>
       </c>
@@ -31658,7 +31657,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>10626</v>
       </c>
@@ -31705,7 +31704,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>10627</v>
       </c>
@@ -31752,7 +31751,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>10629</v>
       </c>
@@ -31799,7 +31798,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>10630</v>
       </c>
@@ -31846,7 +31845,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>10631</v>
       </c>
@@ -31893,7 +31892,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>10633</v>
       </c>
@@ -31940,7 +31939,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>10635</v>
       </c>
@@ -31987,7 +31986,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>10636</v>
       </c>
@@ -32034,7 +32033,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>10637</v>
       </c>
@@ -32081,7 +32080,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>10638</v>
       </c>
@@ -32128,7 +32127,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>10639</v>
       </c>
@@ -32175,7 +32174,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>10640</v>
       </c>
@@ -32222,7 +32221,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>10642</v>
       </c>
@@ -32269,7 +32268,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>10643</v>
       </c>
@@ -32316,7 +32315,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>10646</v>
       </c>
@@ -32363,7 +32362,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>10648</v>
       </c>
@@ -32410,7 +32409,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>10650</v>
       </c>
@@ -32457,7 +32456,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>10651</v>
       </c>
@@ -32504,7 +32503,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>10652</v>
       </c>
@@ -32551,7 +32550,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>10653</v>
       </c>
@@ -32598,7 +32597,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>10654</v>
       </c>
@@ -32645,7 +32644,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>10657</v>
       </c>
@@ -32692,7 +32691,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>10660</v>
       </c>
@@ -32739,7 +32738,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>10662</v>
       </c>
@@ -32786,7 +32785,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>10664</v>
       </c>
@@ -32833,7 +32832,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>10665</v>
       </c>
@@ -32880,7 +32879,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10666</v>
       </c>
@@ -32927,7 +32926,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>10667</v>
       </c>
@@ -32974,7 +32973,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>10670</v>
       </c>
@@ -33021,7 +33020,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>10671</v>
       </c>
@@ -33068,7 +33067,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>10674</v>
       </c>
@@ -33115,7 +33114,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>10675</v>
       </c>
@@ -33162,7 +33161,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>10676</v>
       </c>
@@ -33209,7 +33208,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>10677</v>
       </c>
@@ -33256,7 +33255,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>10679</v>
       </c>
@@ -33303,7 +33302,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>10680</v>
       </c>
@@ -33350,7 +33349,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>10682</v>
       </c>
@@ -33397,7 +33396,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>10684</v>
       </c>
@@ -33444,7 +33443,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>10686</v>
       </c>
@@ -33491,7 +33490,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>10689</v>
       </c>
@@ -33538,7 +33537,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>10690</v>
       </c>
@@ -33585,7 +33584,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>10691</v>
       </c>
@@ -33632,7 +33631,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>10009</v>
       </c>
@@ -33679,7 +33678,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>10011</v>
       </c>
@@ -33726,7 +33725,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>10156</v>
       </c>
@@ -33773,7 +33772,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>10158</v>
       </c>
@@ -33820,7 +33819,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>10173</v>
       </c>
@@ -33867,7 +33866,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>10174</v>
       </c>
@@ -33914,7 +33913,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>10179</v>
       </c>
@@ -33961,7 +33960,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>10181</v>
       </c>
@@ -34008,7 +34007,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>10185</v>
       </c>
@@ -34055,7 +34054,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>10186</v>
       </c>
@@ -34102,7 +34101,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>10190</v>
       </c>
@@ -34149,7 +34148,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>10191</v>
       </c>
@@ -34196,7 +34195,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>10192</v>
       </c>
@@ -34243,7 +34242,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>10196</v>
       </c>
@@ -34290,7 +34289,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>10210</v>
       </c>
@@ -34337,7 +34336,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>10282</v>
       </c>
@@ -34384,7 +34383,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>10283</v>
       </c>
@@ -34431,7 +34430,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>10285</v>
       </c>
@@ -34478,7 +34477,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>10286</v>
       </c>
@@ -34525,7 +34524,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>10288</v>
       </c>
@@ -34572,7 +34571,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>10310</v>
       </c>
@@ -34619,7 +34618,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>10311</v>
       </c>
@@ -34666,7 +34665,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>10317</v>
       </c>
@@ -34713,7 +34712,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>10318</v>
       </c>
@@ -34760,7 +34759,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>10319</v>
       </c>
@@ -34807,7 +34806,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>10326</v>
       </c>
@@ -34854,7 +34853,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>10327</v>
       </c>
@@ -34901,7 +34900,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>10330</v>
       </c>
@@ -34948,7 +34947,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>10372</v>
       </c>
@@ -34995,7 +34994,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>10381</v>
       </c>
@@ -35042,7 +35041,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>10383</v>
       </c>
@@ -35089,7 +35088,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>10445</v>
       </c>
@@ -35136,7 +35135,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>10457</v>
       </c>
@@ -35183,7 +35182,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>10484</v>
       </c>
@@ -35230,7 +35229,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>10487</v>
       </c>
@@ -35277,7 +35276,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>10488</v>
       </c>
@@ -35324,7 +35323,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>10492</v>
       </c>
@@ -35371,7 +35370,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>10519</v>
       </c>
@@ -35418,7 +35417,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>10565</v>
       </c>
@@ -35465,7 +35464,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>10566</v>
       </c>
@@ -35512,7 +35511,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>10569</v>
       </c>
@@ -35559,7 +35558,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>10586</v>
       </c>
@@ -35606,7 +35605,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>10588</v>
       </c>
@@ -35653,7 +35652,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>10594</v>
       </c>
@@ -35700,7 +35699,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>10603</v>
       </c>
@@ -35747,7 +35746,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>10613</v>
       </c>
@@ -35794,7 +35793,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>10615</v>
       </c>
@@ -35841,7 +35840,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>10616</v>
       </c>
@@ -35888,7 +35887,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>10644</v>
       </c>
@@ -35935,7 +35934,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>10647</v>
       </c>
@@ -35982,7 +35981,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>10649</v>
       </c>
@@ -36029,7 +36028,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>10655</v>
       </c>
@@ -36076,7 +36075,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>10656</v>
       </c>
@@ -36123,7 +36122,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>10658</v>
       </c>
@@ -36170,7 +36169,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>10663</v>
       </c>
@@ -36217,7 +36216,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>10668</v>
       </c>
@@ -36264,7 +36263,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>10669</v>
       </c>
@@ -36311,7 +36310,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>10681</v>
       </c>
@@ -36358,7 +36357,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>10685</v>
       </c>
@@ -36405,7 +36404,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>10688</v>
       </c>
@@ -36453,2895 +36452,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q575" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6F00DA-D92F-2345-8AD3-1EDFBCDCFB7F}">
-  <dimension ref="A1:O61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:O61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2787</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2499</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2633</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2784</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10009</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2">
-        <v>2022</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2898</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10011</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3">
-        <v>2022</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2899</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10156</v>
-      </c>
-      <c r="B4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F4" t="s">
-        <v>581</v>
-      </c>
-      <c r="G4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4">
-        <v>2022</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>579</v>
-      </c>
-      <c r="K4" t="s">
-        <v>580</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M4" t="s">
-        <v>578</v>
-      </c>
-      <c r="N4" t="s">
-        <v>580</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" t="s">
-        <v>587</v>
-      </c>
-      <c r="F5" t="s">
-        <v>588</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5">
-        <v>2022</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2901</v>
-      </c>
-      <c r="J5" t="s">
-        <v>355</v>
-      </c>
-      <c r="K5" t="s">
-        <v>587</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M5" t="s">
-        <v>586</v>
-      </c>
-      <c r="N5" t="s">
-        <v>587</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>620</v>
-      </c>
-      <c r="E6" t="s">
-        <v>621</v>
-      </c>
-      <c r="F6" t="s">
-        <v>622</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6">
-        <v>2022</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2902</v>
-      </c>
-      <c r="J6" t="s">
-        <v>620</v>
-      </c>
-      <c r="K6" t="s">
-        <v>621</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M6" t="s">
-        <v>619</v>
-      </c>
-      <c r="N6" t="s">
-        <v>621</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>614</v>
-      </c>
-      <c r="E7" t="s">
-        <v>624</v>
-      </c>
-      <c r="F7" t="s">
-        <v>625</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7">
-        <v>2022</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2903</v>
-      </c>
-      <c r="J7" t="s">
-        <v>614</v>
-      </c>
-      <c r="K7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M7" t="s">
-        <v>623</v>
-      </c>
-      <c r="N7" t="s">
-        <v>624</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10179</v>
-      </c>
-      <c r="B8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>636</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8">
-        <v>2022</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2904</v>
-      </c>
-      <c r="J8" t="s">
-        <v>635</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M8" t="s">
-        <v>634</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10181</v>
-      </c>
-      <c r="B9" t="s">
-        <v>637</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>638</v>
-      </c>
-      <c r="E9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F9" t="s">
-        <v>640</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9">
-        <v>2022</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2905</v>
-      </c>
-      <c r="J9" t="s">
-        <v>638</v>
-      </c>
-      <c r="K9" t="s">
-        <v>639</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M9" t="s">
-        <v>637</v>
-      </c>
-      <c r="N9" t="s">
-        <v>639</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10185</v>
-      </c>
-      <c r="B10" t="s">
-        <v>648</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>649</v>
-      </c>
-      <c r="E10" t="s">
-        <v>650</v>
-      </c>
-      <c r="F10" t="s">
-        <v>651</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10">
-        <v>2022</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2906</v>
-      </c>
-      <c r="J10" t="s">
-        <v>649</v>
-      </c>
-      <c r="K10" t="s">
-        <v>650</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M10" t="s">
-        <v>648</v>
-      </c>
-      <c r="N10" t="s">
-        <v>650</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10186</v>
-      </c>
-      <c r="B11" t="s">
-        <v>652</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>653</v>
-      </c>
-      <c r="E11" t="s">
-        <v>654</v>
-      </c>
-      <c r="F11" t="s">
-        <v>655</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11">
-        <v>2022</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2907</v>
-      </c>
-      <c r="J11" t="s">
-        <v>653</v>
-      </c>
-      <c r="K11" t="s">
-        <v>654</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M11" t="s">
-        <v>652</v>
-      </c>
-      <c r="N11" t="s">
-        <v>654</v>
-      </c>
-      <c r="O11" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10190</v>
-      </c>
-      <c r="B12" t="s">
-        <v>667</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>668</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>669</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12">
-        <v>2022</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2908</v>
-      </c>
-      <c r="J12" t="s">
-        <v>668</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M12" t="s">
-        <v>667</v>
-      </c>
-      <c r="N12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>670</v>
-      </c>
-      <c r="E13" t="s">
-        <v>671</v>
-      </c>
-      <c r="F13" t="s">
-        <v>672</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <v>2022</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2909</v>
-      </c>
-      <c r="J13" t="s">
-        <v>670</v>
-      </c>
-      <c r="K13" t="s">
-        <v>671</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" t="s">
-        <v>671</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>673</v>
-      </c>
-      <c r="E14" t="s">
-        <v>674</v>
-      </c>
-      <c r="F14" t="s">
-        <v>675</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14">
-        <v>2022</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2910</v>
-      </c>
-      <c r="J14" t="s">
-        <v>673</v>
-      </c>
-      <c r="K14" t="s">
-        <v>674</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s">
-        <v>674</v>
-      </c>
-      <c r="O14" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>688</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" t="s">
-        <v>689</v>
-      </c>
-      <c r="F15" t="s">
-        <v>690</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15">
-        <v>2022</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2911</v>
-      </c>
-      <c r="J15" t="s">
-        <v>370</v>
-      </c>
-      <c r="K15" t="s">
-        <v>689</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M15" t="s">
-        <v>688</v>
-      </c>
-      <c r="N15" t="s">
-        <v>689</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>10210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>734</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>735</v>
-      </c>
-      <c r="E16" t="s">
-        <v>736</v>
-      </c>
-      <c r="F16" t="s">
-        <v>737</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16">
-        <v>2022</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2912</v>
-      </c>
-      <c r="J16" t="s">
-        <v>735</v>
-      </c>
-      <c r="K16" t="s">
-        <v>736</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M16" t="s">
-        <v>734</v>
-      </c>
-      <c r="N16" t="s">
-        <v>736</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>10282</v>
-      </c>
-      <c r="B17" t="s">
-        <v>947</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D17" t="s">
-        <v>948</v>
-      </c>
-      <c r="E17" t="s">
-        <v>949</v>
-      </c>
-      <c r="F17" t="s">
-        <v>950</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17">
-        <v>2022</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2913</v>
-      </c>
-      <c r="J17" t="s">
-        <v>948</v>
-      </c>
-      <c r="K17" t="s">
-        <v>949</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M17" t="s">
-        <v>947</v>
-      </c>
-      <c r="N17" t="s">
-        <v>949</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10283</v>
-      </c>
-      <c r="B18" t="s">
-        <v>951</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D18" t="s">
-        <v>952</v>
-      </c>
-      <c r="E18" t="s">
-        <v>953</v>
-      </c>
-      <c r="F18" t="s">
-        <v>954</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>2022</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2914</v>
-      </c>
-      <c r="J18" t="s">
-        <v>952</v>
-      </c>
-      <c r="K18" t="s">
-        <v>953</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M18" t="s">
-        <v>951</v>
-      </c>
-      <c r="N18" t="s">
-        <v>953</v>
-      </c>
-      <c r="O18" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10285</v>
-      </c>
-      <c r="B19" t="s">
-        <v>959</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D19" t="s">
-        <v>960</v>
-      </c>
-      <c r="E19" t="s">
-        <v>961</v>
-      </c>
-      <c r="F19" t="s">
-        <v>962</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19">
-        <v>2022</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2915</v>
-      </c>
-      <c r="J19" t="s">
-        <v>960</v>
-      </c>
-      <c r="K19" t="s">
-        <v>961</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M19" t="s">
-        <v>959</v>
-      </c>
-      <c r="N19" t="s">
-        <v>961</v>
-      </c>
-      <c r="O19" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>963</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" t="s">
-        <v>964</v>
-      </c>
-      <c r="F20" t="s">
-        <v>965</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20">
-        <v>2022</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2916</v>
-      </c>
-      <c r="J20" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" t="s">
-        <v>964</v>
-      </c>
-      <c r="L20" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M20" t="s">
-        <v>963</v>
-      </c>
-      <c r="N20" t="s">
-        <v>964</v>
-      </c>
-      <c r="O20" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>10288</v>
-      </c>
-      <c r="B21" t="s">
-        <v>967</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D21" t="s">
-        <v>968</v>
-      </c>
-      <c r="E21" t="s">
-        <v>969</v>
-      </c>
-      <c r="F21" t="s">
-        <v>970</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21">
-        <v>2022</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2914</v>
-      </c>
-      <c r="J21" t="s">
-        <v>968</v>
-      </c>
-      <c r="K21" t="s">
-        <v>969</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M21" t="s">
-        <v>967</v>
-      </c>
-      <c r="N21" t="s">
-        <v>969</v>
-      </c>
-      <c r="O21" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10310</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22">
-        <v>2022</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2917</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O22" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10311</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23">
-        <v>2022</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2918</v>
-      </c>
-      <c r="J23" t="s">
-        <v>206</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="L23" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M23" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="O23" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10317</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24">
-        <v>2022</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2919</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="L24" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1047</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O24" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10318</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25">
-        <v>2022</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2920</v>
-      </c>
-      <c r="J25" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="O25" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>10319</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D26" t="s">
-        <v>614</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26">
-        <v>2022</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2921</v>
-      </c>
-      <c r="J26" t="s">
-        <v>614</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10326</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27">
-        <v>2022</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2922</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O27" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>10327</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28">
-        <v>2022</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2923</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L28" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1072</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O28" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10330</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29">
-        <v>2022</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2924</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K29" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L29" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N29" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O29" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10372</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30">
-        <v>2021</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2925</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1218</v>
-      </c>
-      <c r="O30" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10381</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31">
-        <v>2021</v>
-      </c>
-      <c r="I31" t="s">
-        <v>2926</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1244</v>
-      </c>
-      <c r="L31" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1242</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O31" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10383</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32">
-        <v>2021</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2927</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L32" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1250</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O32" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10445</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33">
-        <v>2021</v>
-      </c>
-      <c r="I33" t="s">
-        <v>2928</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1449</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1450</v>
-      </c>
-      <c r="L33" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1448</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1450</v>
-      </c>
-      <c r="O33" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10457</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34">
-        <v>2021</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2929</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1483</v>
-      </c>
-      <c r="L34" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1482</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1483</v>
-      </c>
-      <c r="O34" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10484</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1564</v>
-      </c>
-      <c r="G35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35">
-        <v>2021</v>
-      </c>
-      <c r="I35" t="s">
-        <v>2930</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1563</v>
-      </c>
-      <c r="L35" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1561</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1563</v>
-      </c>
-      <c r="O35" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10487</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36">
-        <v>2021</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2931</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1570</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1571</v>
-      </c>
-      <c r="L36" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1571</v>
-      </c>
-      <c r="O36" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10488</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>614</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37">
-        <v>2021</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2932</v>
-      </c>
-      <c r="J37" t="s">
-        <v>614</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1574</v>
-      </c>
-      <c r="L37" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1573</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1574</v>
-      </c>
-      <c r="O37" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10492</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>670</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38">
-        <v>2021</v>
-      </c>
-      <c r="I38" t="s">
-        <v>2933</v>
-      </c>
-      <c r="J38" t="s">
-        <v>670</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L38" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1588</v>
-      </c>
-      <c r="O38" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10519</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" t="s">
-        <v>815</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39">
-        <v>2021</v>
-      </c>
-      <c r="I39" t="s">
-        <v>2934</v>
-      </c>
-      <c r="J39" t="s">
-        <v>815</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1667</v>
-      </c>
-      <c r="L39" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1666</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1667</v>
-      </c>
-      <c r="O39" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10565</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40">
-        <v>2021</v>
-      </c>
-      <c r="I40" t="s">
-        <v>2935</v>
-      </c>
-      <c r="J40" t="s">
-        <v>296</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1815</v>
-      </c>
-      <c r="L40" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1814</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1815</v>
-      </c>
-      <c r="O40" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>10566</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1819</v>
-      </c>
-      <c r="G41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41">
-        <v>2021</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2936</v>
-      </c>
-      <c r="J41" t="s">
-        <v>668</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1818</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1817</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1818</v>
-      </c>
-      <c r="O41" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10569</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1829</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42">
-        <v>2021</v>
-      </c>
-      <c r="I42" t="s">
-        <v>2937</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1828</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L42" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1827</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1829</v>
-      </c>
-      <c r="O42" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10586</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1876</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43">
-        <v>2021</v>
-      </c>
-      <c r="I43" t="s">
-        <v>2938</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1875</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1876</v>
-      </c>
-      <c r="L43" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1874</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1876</v>
-      </c>
-      <c r="O43" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10588</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1884</v>
-      </c>
-      <c r="G44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44">
-        <v>2021</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2939</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1882</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1883</v>
-      </c>
-      <c r="L44" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1881</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1883</v>
-      </c>
-      <c r="O44" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>10594</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1899</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1900</v>
-      </c>
-      <c r="G45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45">
-        <v>2021</v>
-      </c>
-      <c r="I45" t="s">
-        <v>2940</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1898</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1899</v>
-      </c>
-      <c r="L45" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1897</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1899</v>
-      </c>
-      <c r="O45" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>10603</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D46" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1920</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1921</v>
-      </c>
-      <c r="G46" t="s">
-        <v>85</v>
-      </c>
-      <c r="H46">
-        <v>2021</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2941</v>
-      </c>
-      <c r="J46" t="s">
-        <v>206</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1920</v>
-      </c>
-      <c r="L46" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1919</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1920</v>
-      </c>
-      <c r="O46" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>10613</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1952</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1953</v>
-      </c>
-      <c r="G47" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47">
-        <v>2021</v>
-      </c>
-      <c r="I47" t="s">
-        <v>2942</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1951</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1952</v>
-      </c>
-      <c r="L47" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1950</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1952</v>
-      </c>
-      <c r="O47" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>10615</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1958</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1960</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48">
-        <v>2021</v>
-      </c>
-      <c r="I48" t="s">
-        <v>2943</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1959</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1960</v>
-      </c>
-      <c r="L48" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1958</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1960</v>
-      </c>
-      <c r="O48" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>10616</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1962</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D49" t="s">
-        <v>829</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1964</v>
-      </c>
-      <c r="G49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49">
-        <v>2021</v>
-      </c>
-      <c r="I49" t="s">
-        <v>2944</v>
-      </c>
-      <c r="J49" t="s">
-        <v>829</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L49" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1962</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1963</v>
-      </c>
-      <c r="O49" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>10644</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2047</v>
-      </c>
-      <c r="F50" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="H50">
-        <v>2021</v>
-      </c>
-      <c r="I50" t="s">
-        <v>2945</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K50" t="s">
-        <v>2047</v>
-      </c>
-      <c r="L50" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M50" t="s">
-        <v>2046</v>
-      </c>
-      <c r="N50" t="s">
-        <v>2047</v>
-      </c>
-      <c r="O50" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>10647</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2054</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F51" t="s">
-        <v>2056</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51">
-        <v>2021</v>
-      </c>
-      <c r="I51" t="s">
-        <v>2946</v>
-      </c>
-      <c r="J51" t="s">
-        <v>2054</v>
-      </c>
-      <c r="K51" t="s">
-        <v>2055</v>
-      </c>
-      <c r="L51" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M51" t="s">
-        <v>2053</v>
-      </c>
-      <c r="N51" t="s">
-        <v>2055</v>
-      </c>
-      <c r="O51" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>10649</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F52" t="s">
-        <v>2063</v>
-      </c>
-      <c r="G52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52">
-        <v>2021</v>
-      </c>
-      <c r="I52" t="s">
-        <v>2947</v>
-      </c>
-      <c r="J52" t="s">
-        <v>2061</v>
-      </c>
-      <c r="K52" t="s">
-        <v>2062</v>
-      </c>
-      <c r="L52" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M52" t="s">
-        <v>96</v>
-      </c>
-      <c r="N52" t="s">
-        <v>2062</v>
-      </c>
-      <c r="O52" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>10655</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2078</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2080</v>
-      </c>
-      <c r="G53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53">
-        <v>2021</v>
-      </c>
-      <c r="I53" t="s">
-        <v>2948</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K53" t="s">
-        <v>2079</v>
-      </c>
-      <c r="L53" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M53" t="s">
-        <v>2078</v>
-      </c>
-      <c r="N53" t="s">
-        <v>2079</v>
-      </c>
-      <c r="O53" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>10656</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2084</v>
-      </c>
-      <c r="G54" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54">
-        <v>2021</v>
-      </c>
-      <c r="I54" t="s">
-        <v>2949</v>
-      </c>
-      <c r="J54" t="s">
-        <v>2082</v>
-      </c>
-      <c r="K54" t="s">
-        <v>2083</v>
-      </c>
-      <c r="L54" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M54" t="s">
-        <v>2081</v>
-      </c>
-      <c r="N54" t="s">
-        <v>2083</v>
-      </c>
-      <c r="O54" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>10658</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F55" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55">
-        <v>2021</v>
-      </c>
-      <c r="I55" t="s">
-        <v>2950</v>
-      </c>
-      <c r="J55" t="s">
-        <v>2089</v>
-      </c>
-      <c r="K55" t="s">
-        <v>2090</v>
-      </c>
-      <c r="L55" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M55" t="s">
-        <v>2088</v>
-      </c>
-      <c r="N55" t="s">
-        <v>2090</v>
-      </c>
-      <c r="O55" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>10663</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2100</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D56" t="s">
-        <v>670</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F56" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56">
-        <v>2021</v>
-      </c>
-      <c r="I56" t="s">
-        <v>2951</v>
-      </c>
-      <c r="J56" t="s">
-        <v>670</v>
-      </c>
-      <c r="K56" t="s">
-        <v>2101</v>
-      </c>
-      <c r="L56" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M56" t="s">
-        <v>2100</v>
-      </c>
-      <c r="N56" t="s">
-        <v>2101</v>
-      </c>
-      <c r="O56" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>10668</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57">
-        <v>2021</v>
-      </c>
-      <c r="I57" t="s">
-        <v>2952</v>
-      </c>
-      <c r="J57" t="s">
-        <v>2118</v>
-      </c>
-      <c r="K57" t="s">
-        <v>2119</v>
-      </c>
-      <c r="L57" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M57" t="s">
-        <v>2117</v>
-      </c>
-      <c r="N57" t="s">
-        <v>2119</v>
-      </c>
-      <c r="O57" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>10669</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2121</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2122</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2123</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H58">
-        <v>2021</v>
-      </c>
-      <c r="I58" t="s">
-        <v>2953</v>
-      </c>
-      <c r="J58" t="s">
-        <v>2122</v>
-      </c>
-      <c r="K58" t="s">
-        <v>2123</v>
-      </c>
-      <c r="L58" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M58" t="s">
-        <v>2121</v>
-      </c>
-      <c r="N58" t="s">
-        <v>2123</v>
-      </c>
-      <c r="O58" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>10681</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D59" t="s">
-        <v>829</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2154</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59">
-        <v>2021</v>
-      </c>
-      <c r="I59" t="s">
-        <v>2954</v>
-      </c>
-      <c r="J59" t="s">
-        <v>829</v>
-      </c>
-      <c r="K59" t="s">
-        <v>2153</v>
-      </c>
-      <c r="L59" t="s">
-        <v>2413</v>
-      </c>
-      <c r="M59" t="s">
-        <v>2152</v>
-      </c>
-      <c r="N59" t="s">
-        <v>2153</v>
-      </c>
-      <c r="O59" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>10685</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2164</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2165</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60">
-        <v>2021</v>
-      </c>
-      <c r="I60" t="s">
-        <v>2955</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2164</v>
-      </c>
-      <c r="K60" t="s">
-        <v>2165</v>
-      </c>
-      <c r="L60" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M60" t="s">
-        <v>2163</v>
-      </c>
-      <c r="N60" t="s">
-        <v>2165</v>
-      </c>
-      <c r="O60" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>10688</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2172</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2173</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H61">
-        <v>2021</v>
-      </c>
-      <c r="I61" t="s">
-        <v>2956</v>
-      </c>
-      <c r="J61" t="s">
-        <v>2172</v>
-      </c>
-      <c r="K61" t="s">
-        <v>2173</v>
-      </c>
-      <c r="L61" t="s">
-        <v>2897</v>
-      </c>
-      <c r="M61" t="s">
-        <v>2171</v>
-      </c>
-      <c r="N61" t="s">
-        <v>2173</v>
-      </c>
-      <c r="O61" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/temp_doc/DATA SISWA.xlsx
+++ b/temp_doc/DATA SISWA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bkk\temp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD0C0F-704C-4502-9AA3-C7C456DEA643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55355EBF-4511-4216-B064-097AD430D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$516</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9354,8 +9354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}">
   <dimension ref="A1:O576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9449,7 +9449,7 @@
         <v>84</v>
       </c>
       <c r="H2">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I2" t="s">
         <v>2192</v>
@@ -9496,7 +9496,7 @@
         <v>84</v>
       </c>
       <c r="H3">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I3" t="s">
         <v>2193</v>
@@ -9543,7 +9543,7 @@
         <v>84</v>
       </c>
       <c r="H4">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
         <v>2194</v>
@@ -9590,7 +9590,7 @@
         <v>84</v>
       </c>
       <c r="H5">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I5" t="s">
         <v>2195</v>
@@ -9637,7 +9637,7 @@
         <v>83</v>
       </c>
       <c r="H6">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I6" t="s">
         <v>2321</v>
@@ -9684,7 +9684,7 @@
         <v>84</v>
       </c>
       <c r="H7">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I7" t="s">
         <v>2196</v>
@@ -9731,7 +9731,7 @@
         <v>84</v>
       </c>
       <c r="H8">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I8" t="s">
         <v>2197</v>
@@ -9778,7 +9778,7 @@
         <v>84</v>
       </c>
       <c r="H9">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I9" t="s">
         <v>2198</v>
@@ -9825,7 +9825,7 @@
         <v>84</v>
       </c>
       <c r="H10">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I10" t="s">
         <v>2199</v>
@@ -9872,7 +9872,7 @@
         <v>84</v>
       </c>
       <c r="H11">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I11" t="s">
         <v>2200</v>
@@ -9919,7 +9919,7 @@
         <v>84</v>
       </c>
       <c r="H12">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I12" t="s">
         <v>2201</v>
@@ -9966,7 +9966,7 @@
         <v>84</v>
       </c>
       <c r="H13">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I13" t="s">
         <v>2202</v>
@@ -10013,7 +10013,7 @@
         <v>83</v>
       </c>
       <c r="H14">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I14" t="s">
         <v>2321</v>
@@ -10060,7 +10060,7 @@
         <v>84</v>
       </c>
       <c r="H15">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I15" t="s">
         <v>2203</v>
@@ -10107,7 +10107,7 @@
         <v>84</v>
       </c>
       <c r="H16">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I16" t="s">
         <v>2204</v>
@@ -10154,7 +10154,7 @@
         <v>84</v>
       </c>
       <c r="H17">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I17" t="s">
         <v>2204</v>
@@ -10201,7 +10201,7 @@
         <v>82</v>
       </c>
       <c r="H18">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I18" t="s">
         <v>2317</v>
@@ -10248,7 +10248,7 @@
         <v>82</v>
       </c>
       <c r="H19">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I19" t="s">
         <v>2318</v>
@@ -10295,7 +10295,7 @@
         <v>82</v>
       </c>
       <c r="H20">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I20" t="s">
         <v>2319</v>
@@ -10342,7 +10342,7 @@
         <v>82</v>
       </c>
       <c r="H21">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I21" t="s">
         <v>2788</v>
@@ -10389,7 +10389,7 @@
         <v>82</v>
       </c>
       <c r="H22">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I22" t="s">
         <v>2789</v>
@@ -10436,7 +10436,7 @@
         <v>82</v>
       </c>
       <c r="H23">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I23" t="s">
         <v>2790</v>
@@ -10483,7 +10483,7 @@
         <v>82</v>
       </c>
       <c r="H24">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I24" t="s">
         <v>2791</v>
@@ -10530,7 +10530,7 @@
         <v>82</v>
       </c>
       <c r="H25">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I25" t="s">
         <v>2793</v>
@@ -10577,7 +10577,7 @@
         <v>82</v>
       </c>
       <c r="H26">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I26" t="s">
         <v>2793</v>
@@ -10624,7 +10624,7 @@
         <v>82</v>
       </c>
       <c r="H27">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I27" t="s">
         <v>2317</v>
@@ -10671,7 +10671,7 @@
         <v>82</v>
       </c>
       <c r="H28">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I28" t="s">
         <v>2318</v>
@@ -10718,7 +10718,7 @@
         <v>82</v>
       </c>
       <c r="H29">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I29" t="s">
         <v>2319</v>
@@ -10765,7 +10765,7 @@
         <v>82</v>
       </c>
       <c r="H30">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I30" t="s">
         <v>2788</v>
@@ -10812,7 +10812,7 @@
         <v>82</v>
       </c>
       <c r="H31">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I31" t="s">
         <v>2789</v>
@@ -10859,7 +10859,7 @@
         <v>82</v>
       </c>
       <c r="H32">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I32" t="s">
         <v>2790</v>
@@ -10906,7 +10906,7 @@
         <v>82</v>
       </c>
       <c r="H33">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I33" t="s">
         <v>2791</v>
@@ -10953,7 +10953,7 @@
         <v>82</v>
       </c>
       <c r="H34">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I34" t="s">
         <v>2792</v>
@@ -11000,7 +11000,7 @@
         <v>82</v>
       </c>
       <c r="H35">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I35" t="s">
         <v>2793</v>
@@ -11047,7 +11047,7 @@
         <v>82</v>
       </c>
       <c r="H36">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I36" t="s">
         <v>2317</v>
@@ -11094,7 +11094,7 @@
         <v>82</v>
       </c>
       <c r="H37">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I37" t="s">
         <v>2318</v>
@@ -11141,7 +11141,7 @@
         <v>82</v>
       </c>
       <c r="H38">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I38" t="s">
         <v>2319</v>
@@ -11188,7 +11188,7 @@
         <v>82</v>
       </c>
       <c r="H39">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I39" t="s">
         <v>2788</v>
@@ -11235,7 +11235,7 @@
         <v>82</v>
       </c>
       <c r="H40">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I40" t="s">
         <v>2789</v>
@@ -11282,7 +11282,7 @@
         <v>82</v>
       </c>
       <c r="H41">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I41" t="s">
         <v>2790</v>
@@ -11329,7 +11329,7 @@
         <v>82</v>
       </c>
       <c r="H42">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I42" t="s">
         <v>2791</v>
@@ -11376,7 +11376,7 @@
         <v>82</v>
       </c>
       <c r="H43">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I43" t="s">
         <v>2792</v>
@@ -11423,7 +11423,7 @@
         <v>82</v>
       </c>
       <c r="H44">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I44" t="s">
         <v>2793</v>
@@ -11470,7 +11470,7 @@
         <v>82</v>
       </c>
       <c r="H45">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I45" t="s">
         <v>2317</v>
@@ -11517,7 +11517,7 @@
         <v>82</v>
       </c>
       <c r="H46">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I46" t="s">
         <v>2318</v>
@@ -11564,7 +11564,7 @@
         <v>82</v>
       </c>
       <c r="H47">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I47" t="s">
         <v>2319</v>
@@ -11611,7 +11611,7 @@
         <v>82</v>
       </c>
       <c r="H48">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I48" t="s">
         <v>2788</v>
@@ -11658,7 +11658,7 @@
         <v>82</v>
       </c>
       <c r="H49">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I49" t="s">
         <v>2789</v>
@@ -11705,7 +11705,7 @@
         <v>82</v>
       </c>
       <c r="H50">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I50" t="s">
         <v>2790</v>
@@ -11752,7 +11752,7 @@
         <v>82</v>
       </c>
       <c r="H51">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I51" t="s">
         <v>2791</v>
@@ -11799,7 +11799,7 @@
         <v>82</v>
       </c>
       <c r="H52">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I52" t="s">
         <v>2792</v>
@@ -11846,7 +11846,7 @@
         <v>82</v>
       </c>
       <c r="H53">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I53" t="s">
         <v>2793</v>
@@ -11893,7 +11893,7 @@
         <v>82</v>
       </c>
       <c r="H54">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I54" t="s">
         <v>2317</v>
@@ -11940,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="H55">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I55" t="s">
         <v>2318</v>
@@ -11987,7 +11987,7 @@
         <v>82</v>
       </c>
       <c r="H56">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I56" t="s">
         <v>2319</v>
@@ -12034,7 +12034,7 @@
         <v>82</v>
       </c>
       <c r="H57">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I57" t="s">
         <v>2788</v>
@@ -12081,7 +12081,7 @@
         <v>82</v>
       </c>
       <c r="H58">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I58" t="s">
         <v>2789</v>
@@ -12128,7 +12128,7 @@
         <v>82</v>
       </c>
       <c r="H59">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I59" t="s">
         <v>2790</v>
@@ -12175,7 +12175,7 @@
         <v>82</v>
       </c>
       <c r="H60">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I60" t="s">
         <v>2791</v>
@@ -12222,7 +12222,7 @@
         <v>82</v>
       </c>
       <c r="H61">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I61" t="s">
         <v>2792</v>
@@ -12269,7 +12269,7 @@
         <v>82</v>
       </c>
       <c r="H62">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I62" t="s">
         <v>2793</v>
@@ -12316,7 +12316,7 @@
         <v>82</v>
       </c>
       <c r="H63">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I63" t="s">
         <v>2317</v>
@@ -12363,7 +12363,7 @@
         <v>82</v>
       </c>
       <c r="H64">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I64" t="s">
         <v>2318</v>
@@ -12410,7 +12410,7 @@
         <v>82</v>
       </c>
       <c r="H65">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I65" t="s">
         <v>2319</v>
@@ -12457,7 +12457,7 @@
         <v>82</v>
       </c>
       <c r="H66">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I66" t="s">
         <v>2788</v>
@@ -12504,7 +12504,7 @@
         <v>82</v>
       </c>
       <c r="H67">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I67" t="s">
         <v>2789</v>
@@ -12551,7 +12551,7 @@
         <v>82</v>
       </c>
       <c r="H68">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I68" t="s">
         <v>2790</v>
@@ -12598,7 +12598,7 @@
         <v>82</v>
       </c>
       <c r="H69">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I69" t="s">
         <v>2791</v>
@@ -12645,7 +12645,7 @@
         <v>82</v>
       </c>
       <c r="H70">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I70" t="s">
         <v>2792</v>
@@ -12692,7 +12692,7 @@
         <v>82</v>
       </c>
       <c r="H71">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I71" t="s">
         <v>2793</v>
@@ -12739,7 +12739,7 @@
         <v>82</v>
       </c>
       <c r="H72">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I72" t="s">
         <v>2317</v>
@@ -12786,7 +12786,7 @@
         <v>82</v>
       </c>
       <c r="H73">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I73" t="s">
         <v>2318</v>
@@ -12833,7 +12833,7 @@
         <v>82</v>
       </c>
       <c r="H74">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I74" t="s">
         <v>2319</v>
@@ -12880,7 +12880,7 @@
         <v>82</v>
       </c>
       <c r="H75">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I75" t="s">
         <v>2788</v>
@@ -12927,7 +12927,7 @@
         <v>82</v>
       </c>
       <c r="H76">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I76" t="s">
         <v>2789</v>
@@ -12974,7 +12974,7 @@
         <v>82</v>
       </c>
       <c r="H77">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I77" t="s">
         <v>2790</v>
@@ -13021,7 +13021,7 @@
         <v>82</v>
       </c>
       <c r="H78">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I78" t="s">
         <v>2791</v>
@@ -13068,7 +13068,7 @@
         <v>82</v>
       </c>
       <c r="H79">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I79" t="s">
         <v>2792</v>
@@ -13115,7 +13115,7 @@
         <v>82</v>
       </c>
       <c r="H80">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I80" t="s">
         <v>2793</v>
@@ -13162,7 +13162,7 @@
         <v>82</v>
       </c>
       <c r="H81">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I81" t="s">
         <v>2317</v>
@@ -13209,7 +13209,7 @@
         <v>82</v>
       </c>
       <c r="H82">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I82" t="s">
         <v>2318</v>
@@ -13256,7 +13256,7 @@
         <v>82</v>
       </c>
       <c r="H83">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I83" t="s">
         <v>2319</v>
@@ -13303,7 +13303,7 @@
         <v>82</v>
       </c>
       <c r="H84">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I84" t="s">
         <v>2788</v>
@@ -13350,7 +13350,7 @@
         <v>82</v>
       </c>
       <c r="H85">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I85" t="s">
         <v>2789</v>
@@ -13397,7 +13397,7 @@
         <v>82</v>
       </c>
       <c r="H86">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I86" t="s">
         <v>2790</v>
@@ -13444,7 +13444,7 @@
         <v>82</v>
       </c>
       <c r="H87">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I87" t="s">
         <v>2791</v>
@@ -13491,7 +13491,7 @@
         <v>82</v>
       </c>
       <c r="H88">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I88" t="s">
         <v>2792</v>
@@ -13538,7 +13538,7 @@
         <v>82</v>
       </c>
       <c r="H89">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I89" t="s">
         <v>2793</v>
@@ -13585,7 +13585,7 @@
         <v>82</v>
       </c>
       <c r="H90">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I90" t="s">
         <v>2317</v>
@@ -13632,7 +13632,7 @@
         <v>82</v>
       </c>
       <c r="H91">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I91" t="s">
         <v>2318</v>
@@ -13679,7 +13679,7 @@
         <v>82</v>
       </c>
       <c r="H92">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I92" t="s">
         <v>2319</v>
@@ -13726,7 +13726,7 @@
         <v>82</v>
       </c>
       <c r="H93">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I93" t="s">
         <v>2788</v>
@@ -13773,7 +13773,7 @@
         <v>82</v>
       </c>
       <c r="H94">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I94" t="s">
         <v>2789</v>
@@ -13820,7 +13820,7 @@
         <v>82</v>
       </c>
       <c r="H95">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I95" t="s">
         <v>2790</v>
@@ -13867,7 +13867,7 @@
         <v>82</v>
       </c>
       <c r="H96">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I96" t="s">
         <v>2791</v>
@@ -13914,7 +13914,7 @@
         <v>82</v>
       </c>
       <c r="H97">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I97" t="s">
         <v>2792</v>
@@ -13961,7 +13961,7 @@
         <v>82</v>
       </c>
       <c r="H98">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I98" t="s">
         <v>2793</v>
@@ -14008,7 +14008,7 @@
         <v>82</v>
       </c>
       <c r="H99">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I99" t="s">
         <v>2317</v>
@@ -14055,7 +14055,7 @@
         <v>82</v>
       </c>
       <c r="H100">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I100" t="s">
         <v>2318</v>
@@ -14102,7 +14102,7 @@
         <v>82</v>
       </c>
       <c r="H101">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I101" t="s">
         <v>2319</v>
@@ -14149,7 +14149,7 @@
         <v>82</v>
       </c>
       <c r="H102">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I102" t="s">
         <v>2788</v>
@@ -14196,7 +14196,7 @@
         <v>82</v>
       </c>
       <c r="H103">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I103" t="s">
         <v>2789</v>
@@ -14243,7 +14243,7 @@
         <v>82</v>
       </c>
       <c r="H104">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I104" t="s">
         <v>2790</v>
@@ -14290,7 +14290,7 @@
         <v>82</v>
       </c>
       <c r="H105">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I105" t="s">
         <v>2791</v>
@@ -14337,7 +14337,7 @@
         <v>82</v>
       </c>
       <c r="H106">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I106" t="s">
         <v>2792</v>
@@ -14384,7 +14384,7 @@
         <v>82</v>
       </c>
       <c r="H107">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I107" t="s">
         <v>2793</v>
@@ -14431,7 +14431,7 @@
         <v>82</v>
       </c>
       <c r="H108">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I108" t="s">
         <v>2317</v>
@@ -14478,7 +14478,7 @@
         <v>82</v>
       </c>
       <c r="H109">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I109" t="s">
         <v>2318</v>
@@ -14525,7 +14525,7 @@
         <v>82</v>
       </c>
       <c r="H110">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I110" t="s">
         <v>2319</v>
@@ -14572,7 +14572,7 @@
         <v>84</v>
       </c>
       <c r="H111">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I111" t="s">
         <v>2205</v>
@@ -14619,7 +14619,7 @@
         <v>84</v>
       </c>
       <c r="H112">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I112" t="s">
         <v>2206</v>
@@ -14666,7 +14666,7 @@
         <v>84</v>
       </c>
       <c r="H113">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I113" t="s">
         <v>2207</v>
@@ -14713,7 +14713,7 @@
         <v>84</v>
       </c>
       <c r="H114">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I114" t="s">
         <v>2208</v>
@@ -14760,7 +14760,7 @@
         <v>83</v>
       </c>
       <c r="H115">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I115" t="s">
         <v>2321</v>
@@ -14807,7 +14807,7 @@
         <v>84</v>
       </c>
       <c r="H116">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I116" t="s">
         <v>2209</v>
@@ -14854,7 +14854,7 @@
         <v>83</v>
       </c>
       <c r="H117">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I117" t="s">
         <v>2321</v>
@@ -14901,7 +14901,7 @@
         <v>84</v>
       </c>
       <c r="H118">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I118" t="s">
         <v>2210</v>
@@ -14948,7 +14948,7 @@
         <v>84</v>
       </c>
       <c r="H119">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I119" t="s">
         <v>2211</v>
@@ -14995,7 +14995,7 @@
         <v>84</v>
       </c>
       <c r="H120">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I120" t="s">
         <v>2212</v>
@@ -15042,7 +15042,7 @@
         <v>83</v>
       </c>
       <c r="H121">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I121" t="s">
         <v>2321</v>
@@ -15089,7 +15089,7 @@
         <v>83</v>
       </c>
       <c r="H122">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I122" t="s">
         <v>2321</v>
@@ -15136,7 +15136,7 @@
         <v>84</v>
       </c>
       <c r="H123">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I123" t="s">
         <v>2212</v>
@@ -15183,7 +15183,7 @@
         <v>83</v>
       </c>
       <c r="H124">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I124" t="s">
         <v>2321</v>
@@ -15230,7 +15230,7 @@
         <v>84</v>
       </c>
       <c r="H125">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I125" t="s">
         <v>2213</v>
@@ -15277,7 +15277,7 @@
         <v>84</v>
       </c>
       <c r="H126">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I126" t="s">
         <v>2214</v>
@@ -15324,7 +15324,7 @@
         <v>83</v>
       </c>
       <c r="H127">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I127" t="s">
         <v>2321</v>
@@ -15371,7 +15371,7 @@
         <v>84</v>
       </c>
       <c r="H128">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I128" t="s">
         <v>2215</v>
@@ -15418,7 +15418,7 @@
         <v>83</v>
       </c>
       <c r="H129">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I129" t="s">
         <v>2321</v>
@@ -15465,7 +15465,7 @@
         <v>84</v>
       </c>
       <c r="H130">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I130" t="s">
         <v>2216</v>
@@ -15512,7 +15512,7 @@
         <v>84</v>
       </c>
       <c r="H131">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I131" t="s">
         <v>2217</v>
@@ -15559,7 +15559,7 @@
         <v>83</v>
       </c>
       <c r="H132">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I132" t="s">
         <v>2321</v>
@@ -15606,7 +15606,7 @@
         <v>84</v>
       </c>
       <c r="H133">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I133" t="s">
         <v>2218</v>
@@ -15653,7 +15653,7 @@
         <v>83</v>
       </c>
       <c r="H134">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I134" t="s">
         <v>2321</v>
@@ -15700,7 +15700,7 @@
         <v>83</v>
       </c>
       <c r="H135">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I135" t="s">
         <v>2321</v>
@@ -15747,7 +15747,7 @@
         <v>84</v>
       </c>
       <c r="H136">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I136" t="s">
         <v>2219</v>
@@ -15794,7 +15794,7 @@
         <v>84</v>
       </c>
       <c r="H137">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I137" t="s">
         <v>2220</v>
@@ -15841,7 +15841,7 @@
         <v>84</v>
       </c>
       <c r="H138">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I138" t="s">
         <v>2221</v>
@@ -15888,7 +15888,7 @@
         <v>84</v>
       </c>
       <c r="H139">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I139" t="s">
         <v>2222</v>
@@ -15935,7 +15935,7 @@
         <v>84</v>
       </c>
       <c r="H140">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I140" t="s">
         <v>2223</v>
@@ -15982,7 +15982,7 @@
         <v>84</v>
       </c>
       <c r="H141">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I141" t="s">
         <v>2224</v>
@@ -16029,7 +16029,7 @@
         <v>84</v>
       </c>
       <c r="H142">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I142" t="s">
         <v>2225</v>
@@ -16076,7 +16076,7 @@
         <v>84</v>
       </c>
       <c r="H143">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I143" t="s">
         <v>2226</v>
@@ -16123,7 +16123,7 @@
         <v>84</v>
       </c>
       <c r="H144">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I144" t="s">
         <v>2227</v>
@@ -16170,7 +16170,7 @@
         <v>84</v>
       </c>
       <c r="H145">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I145" t="s">
         <v>2228</v>
@@ -16217,7 +16217,7 @@
         <v>84</v>
       </c>
       <c r="H146">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I146" t="s">
         <v>2229</v>
@@ -16264,7 +16264,7 @@
         <v>84</v>
       </c>
       <c r="H147">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I147" t="s">
         <v>2230</v>
@@ -16311,7 +16311,7 @@
         <v>84</v>
       </c>
       <c r="H148">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I148" t="s">
         <v>2231</v>
@@ -16358,7 +16358,7 @@
         <v>84</v>
       </c>
       <c r="H149">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I149" t="s">
         <v>2232</v>
@@ -16405,7 +16405,7 @@
         <v>84</v>
       </c>
       <c r="H150">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I150" t="s">
         <v>2233</v>
@@ -16452,7 +16452,7 @@
         <v>84</v>
       </c>
       <c r="H151">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I151" t="s">
         <v>2234</v>
@@ -16499,7 +16499,7 @@
         <v>84</v>
       </c>
       <c r="H152">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I152" t="s">
         <v>2235</v>
@@ -16546,7 +16546,7 @@
         <v>84</v>
       </c>
       <c r="H153">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I153" t="s">
         <v>2236</v>
@@ -16593,7 +16593,7 @@
         <v>84</v>
       </c>
       <c r="H154">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I154" t="s">
         <v>2237</v>
@@ -16640,7 +16640,7 @@
         <v>84</v>
       </c>
       <c r="H155">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I155" t="s">
         <v>2238</v>
@@ -16687,7 +16687,7 @@
         <v>84</v>
       </c>
       <c r="H156">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I156" t="s">
         <v>2239</v>
@@ -16734,7 +16734,7 @@
         <v>84</v>
       </c>
       <c r="H157">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I157" t="s">
         <v>2240</v>
@@ -16781,7 +16781,7 @@
         <v>84</v>
       </c>
       <c r="H158">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I158" t="s">
         <v>2241</v>
@@ -16828,7 +16828,7 @@
         <v>84</v>
       </c>
       <c r="H159">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I159" t="s">
         <v>2242</v>
@@ -16875,7 +16875,7 @@
         <v>84</v>
       </c>
       <c r="H160">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I160" t="s">
         <v>2243</v>
@@ -16922,7 +16922,7 @@
         <v>84</v>
       </c>
       <c r="H161">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I161" t="s">
         <v>2244</v>
@@ -16969,7 +16969,7 @@
         <v>84</v>
       </c>
       <c r="H162">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I162" t="s">
         <v>2245</v>
@@ -17016,7 +17016,7 @@
         <v>84</v>
       </c>
       <c r="H163">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I163" t="s">
         <v>2246</v>
@@ -17063,7 +17063,7 @@
         <v>84</v>
       </c>
       <c r="H164">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I164" t="s">
         <v>2247</v>
@@ -17110,7 +17110,7 @@
         <v>84</v>
       </c>
       <c r="H165">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I165" t="s">
         <v>2248</v>
@@ -17157,7 +17157,7 @@
         <v>84</v>
       </c>
       <c r="H166">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I166" t="s">
         <v>2249</v>
@@ -17204,7 +17204,7 @@
         <v>84</v>
       </c>
       <c r="H167">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I167" t="s">
         <v>2250</v>
@@ -17251,7 +17251,7 @@
         <v>84</v>
       </c>
       <c r="H168">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I168" t="s">
         <v>2251</v>
@@ -17298,7 +17298,7 @@
         <v>84</v>
       </c>
       <c r="H169">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I169" t="s">
         <v>2252</v>
@@ -17345,7 +17345,7 @@
         <v>84</v>
       </c>
       <c r="H170">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I170" t="s">
         <v>2253</v>
@@ -17392,7 +17392,7 @@
         <v>84</v>
       </c>
       <c r="H171">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I171" t="s">
         <v>2254</v>
@@ -17439,7 +17439,7 @@
         <v>84</v>
       </c>
       <c r="H172">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I172" t="s">
         <v>2255</v>
@@ -17486,7 +17486,7 @@
         <v>84</v>
       </c>
       <c r="H173">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I173" t="s">
         <v>2256</v>
@@ -17533,7 +17533,7 @@
         <v>84</v>
       </c>
       <c r="H174">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I174" t="s">
         <v>2257</v>
@@ -17580,7 +17580,7 @@
         <v>84</v>
       </c>
       <c r="H175">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I175" t="s">
         <v>2258</v>
@@ -17627,7 +17627,7 @@
         <v>84</v>
       </c>
       <c r="H176">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I176" t="s">
         <v>2259</v>
@@ -17674,7 +17674,7 @@
         <v>84</v>
       </c>
       <c r="H177">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I177" t="s">
         <v>2260</v>
@@ -17721,7 +17721,7 @@
         <v>84</v>
       </c>
       <c r="H178">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I178" t="s">
         <v>2261</v>
@@ -17768,7 +17768,7 @@
         <v>84</v>
       </c>
       <c r="H179">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I179" t="s">
         <v>2262</v>
@@ -17815,7 +17815,7 @@
         <v>84</v>
       </c>
       <c r="H180">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I180" t="s">
         <v>2263</v>
@@ -17862,7 +17862,7 @@
         <v>84</v>
       </c>
       <c r="H181">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I181" t="s">
         <v>2233</v>
@@ -17909,7 +17909,7 @@
         <v>84</v>
       </c>
       <c r="H182">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I182" t="s">
         <v>2264</v>
@@ -17956,7 +17956,7 @@
         <v>84</v>
       </c>
       <c r="H183">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I183" t="s">
         <v>2265</v>
@@ -18003,7 +18003,7 @@
         <v>84</v>
       </c>
       <c r="H184">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I184" t="s">
         <v>2265</v>
@@ -18050,7 +18050,7 @@
         <v>84</v>
       </c>
       <c r="H185">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I185" t="s">
         <v>2266</v>
@@ -18097,7 +18097,7 @@
         <v>84</v>
       </c>
       <c r="H186">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I186" t="s">
         <v>2267</v>
@@ -18144,7 +18144,7 @@
         <v>84</v>
       </c>
       <c r="H187">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I187" t="s">
         <v>2268</v>
@@ -18191,7 +18191,7 @@
         <v>84</v>
       </c>
       <c r="H188">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I188" t="s">
         <v>2269</v>
@@ -18238,7 +18238,7 @@
         <v>84</v>
       </c>
       <c r="H189">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I189" t="s">
         <v>2270</v>
@@ -18285,7 +18285,7 @@
         <v>84</v>
       </c>
       <c r="H190">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I190" t="s">
         <v>2271</v>
@@ -18332,7 +18332,7 @@
         <v>84</v>
       </c>
       <c r="H191">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I191" t="s">
         <v>2272</v>
@@ -18379,7 +18379,7 @@
         <v>84</v>
       </c>
       <c r="H192">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I192" t="s">
         <v>2273</v>
@@ -18426,7 +18426,7 @@
         <v>84</v>
       </c>
       <c r="H193">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I193" t="s">
         <v>2274</v>
@@ -18473,7 +18473,7 @@
         <v>84</v>
       </c>
       <c r="H194">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I194" t="s">
         <v>2275</v>
@@ -18520,7 +18520,7 @@
         <v>84</v>
       </c>
       <c r="H195">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I195" t="s">
         <v>2276</v>
@@ -18567,7 +18567,7 @@
         <v>84</v>
       </c>
       <c r="H196">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I196" t="s">
         <v>2277</v>
@@ -18614,7 +18614,7 @@
         <v>84</v>
       </c>
       <c r="H197">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I197" t="s">
         <v>2278</v>
@@ -18661,7 +18661,7 @@
         <v>84</v>
       </c>
       <c r="H198">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I198" t="s">
         <v>2279</v>
@@ -18708,7 +18708,7 @@
         <v>84</v>
       </c>
       <c r="H199">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I199" t="s">
         <v>2280</v>
@@ -18755,7 +18755,7 @@
         <v>84</v>
       </c>
       <c r="H200">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I200" t="s">
         <v>2281</v>
@@ -18802,7 +18802,7 @@
         <v>84</v>
       </c>
       <c r="H201">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I201" t="s">
         <v>2282</v>
@@ -18849,7 +18849,7 @@
         <v>84</v>
       </c>
       <c r="H202">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I202" t="s">
         <v>2283</v>
@@ -18896,7 +18896,7 @@
         <v>84</v>
       </c>
       <c r="H203">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I203" t="s">
         <v>2284</v>
@@ -18943,7 +18943,7 @@
         <v>84</v>
       </c>
       <c r="H204">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I204" t="s">
         <v>2285</v>
@@ -18990,7 +18990,7 @@
         <v>84</v>
       </c>
       <c r="H205">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I205" t="s">
         <v>2286</v>
@@ -19037,7 +19037,7 @@
         <v>84</v>
       </c>
       <c r="H206">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I206" t="s">
         <v>2287</v>
@@ -19084,7 +19084,7 @@
         <v>84</v>
       </c>
       <c r="H207">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I207" t="s">
         <v>2288</v>
@@ -19131,7 +19131,7 @@
         <v>84</v>
       </c>
       <c r="H208">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I208" t="s">
         <v>2289</v>
@@ -19178,7 +19178,7 @@
         <v>84</v>
       </c>
       <c r="H209">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I209" t="s">
         <v>2290</v>
@@ -19225,7 +19225,7 @@
         <v>84</v>
       </c>
       <c r="H210">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I210" t="s">
         <v>2291</v>
@@ -19272,7 +19272,7 @@
         <v>84</v>
       </c>
       <c r="H211">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I211" t="s">
         <v>2292</v>
@@ -19319,7 +19319,7 @@
         <v>84</v>
       </c>
       <c r="H212">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I212" t="s">
         <v>2293</v>
@@ -19366,7 +19366,7 @@
         <v>84</v>
       </c>
       <c r="H213">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I213" t="s">
         <v>2294</v>
@@ -19413,7 +19413,7 @@
         <v>84</v>
       </c>
       <c r="H214">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I214" t="s">
         <v>2295</v>
@@ -19460,7 +19460,7 @@
         <v>84</v>
       </c>
       <c r="H215">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I215" t="s">
         <v>2296</v>
@@ -19507,7 +19507,7 @@
         <v>84</v>
       </c>
       <c r="H216">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I216" t="s">
         <v>2297</v>
@@ -19554,7 +19554,7 @@
         <v>84</v>
       </c>
       <c r="H217">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I217" t="s">
         <v>2298</v>
@@ -19601,7 +19601,7 @@
         <v>84</v>
       </c>
       <c r="H218">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I218" t="s">
         <v>2299</v>
@@ -19648,7 +19648,7 @@
         <v>84</v>
       </c>
       <c r="H219">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I219" t="s">
         <v>2300</v>
@@ -19695,7 +19695,7 @@
         <v>84</v>
       </c>
       <c r="H220">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I220" t="s">
         <v>2301</v>
@@ -19742,7 +19742,7 @@
         <v>84</v>
       </c>
       <c r="H221">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I221" t="s">
         <v>2302</v>
@@ -19789,7 +19789,7 @@
         <v>84</v>
       </c>
       <c r="H222">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I222" t="s">
         <v>2303</v>
@@ -19836,7 +19836,7 @@
         <v>84</v>
       </c>
       <c r="H223">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I223" t="s">
         <v>2304</v>
@@ -19883,7 +19883,7 @@
         <v>84</v>
       </c>
       <c r="H224">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I224" t="s">
         <v>2305</v>
@@ -19930,7 +19930,7 @@
         <v>84</v>
       </c>
       <c r="H225">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I225" t="s">
         <v>2306</v>
@@ -19977,7 +19977,7 @@
         <v>84</v>
       </c>
       <c r="H226">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I226" t="s">
         <v>2307</v>
@@ -20024,7 +20024,7 @@
         <v>84</v>
       </c>
       <c r="H227">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I227" t="s">
         <v>2308</v>
@@ -20071,7 +20071,7 @@
         <v>84</v>
       </c>
       <c r="H228">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I228" t="s">
         <v>2309</v>
@@ -20118,7 +20118,7 @@
         <v>84</v>
       </c>
       <c r="H229">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I229" t="s">
         <v>2310</v>
@@ -20165,7 +20165,7 @@
         <v>84</v>
       </c>
       <c r="H230">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I230" t="s">
         <v>2311</v>
@@ -20212,7 +20212,7 @@
         <v>84</v>
       </c>
       <c r="H231">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I231" t="s">
         <v>2312</v>
@@ -20259,7 +20259,7 @@
         <v>84</v>
       </c>
       <c r="H232">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I232" t="s">
         <v>2313</v>
@@ -20306,7 +20306,7 @@
         <v>84</v>
       </c>
       <c r="H233">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I233" t="s">
         <v>2314</v>
@@ -20353,7 +20353,7 @@
         <v>84</v>
       </c>
       <c r="H234">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I234" t="s">
         <v>2315</v>
@@ -20400,7 +20400,7 @@
         <v>84</v>
       </c>
       <c r="H235">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I235" t="s">
         <v>2316</v>
@@ -20447,7 +20447,7 @@
         <v>84</v>
       </c>
       <c r="H236">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I236" t="s">
         <v>2248</v>
@@ -20494,7 +20494,7 @@
         <v>84</v>
       </c>
       <c r="H237">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I237" t="s">
         <v>2249</v>
@@ -20541,7 +20541,7 @@
         <v>84</v>
       </c>
       <c r="H238">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I238" t="s">
         <v>2250</v>
@@ -20588,7 +20588,7 @@
         <v>84</v>
       </c>
       <c r="H239">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I239" t="s">
         <v>2251</v>
@@ -20635,7 +20635,7 @@
         <v>84</v>
       </c>
       <c r="H240">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I240" t="s">
         <v>2252</v>
@@ -20682,7 +20682,7 @@
         <v>84</v>
       </c>
       <c r="H241">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I241" t="s">
         <v>2253</v>
@@ -20729,7 +20729,7 @@
         <v>84</v>
       </c>
       <c r="H242">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I242" t="s">
         <v>2254</v>
@@ -20776,7 +20776,7 @@
         <v>84</v>
       </c>
       <c r="H243">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I243" t="s">
         <v>2255</v>
@@ -20823,7 +20823,7 @@
         <v>84</v>
       </c>
       <c r="H244">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I244" t="s">
         <v>2256</v>
@@ -20870,7 +20870,7 @@
         <v>84</v>
       </c>
       <c r="H245">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I245" t="s">
         <v>2257</v>
@@ -20917,7 +20917,7 @@
         <v>84</v>
       </c>
       <c r="H246">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I246" t="s">
         <v>2258</v>
@@ -20964,7 +20964,7 @@
         <v>83</v>
       </c>
       <c r="H247">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I247" t="s">
         <v>2321</v>
@@ -21011,7 +21011,7 @@
         <v>83</v>
       </c>
       <c r="H248">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I248" t="s">
         <v>2321</v>
@@ -21058,7 +21058,7 @@
         <v>84</v>
       </c>
       <c r="H249">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I249" t="s">
         <v>2259</v>
@@ -21105,7 +21105,7 @@
         <v>83</v>
       </c>
       <c r="H250">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I250" t="s">
         <v>2321</v>
@@ -21152,7 +21152,7 @@
         <v>83</v>
       </c>
       <c r="H251">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I251" t="s">
         <v>2321</v>
@@ -21199,7 +21199,7 @@
         <v>84</v>
       </c>
       <c r="H252">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I252" t="s">
         <v>2260</v>
@@ -21246,7 +21246,7 @@
         <v>84</v>
       </c>
       <c r="H253">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I253" t="s">
         <v>2261</v>
@@ -21293,7 +21293,7 @@
         <v>84</v>
       </c>
       <c r="H254">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I254" t="s">
         <v>2262</v>
@@ -21340,7 +21340,7 @@
         <v>83</v>
       </c>
       <c r="H255">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I255" t="s">
         <v>2321</v>
@@ -21387,7 +21387,7 @@
         <v>84</v>
       </c>
       <c r="H256">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I256" t="s">
         <v>2263</v>
@@ -21434,7 +21434,7 @@
         <v>84</v>
       </c>
       <c r="H257">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I257" t="s">
         <v>2233</v>
@@ -21481,7 +21481,7 @@
         <v>84</v>
       </c>
       <c r="H258">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I258" t="s">
         <v>2264</v>
@@ -21528,7 +21528,7 @@
         <v>84</v>
       </c>
       <c r="H259">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I259" t="s">
         <v>2265</v>
@@ -21575,7 +21575,7 @@
         <v>84</v>
       </c>
       <c r="H260">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I260" t="s">
         <v>2283</v>
@@ -21622,7 +21622,7 @@
         <v>84</v>
       </c>
       <c r="H261">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I261" t="s">
         <v>2266</v>
@@ -21669,7 +21669,7 @@
         <v>84</v>
       </c>
       <c r="H262">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I262" t="s">
         <v>2267</v>
@@ -21716,7 +21716,7 @@
         <v>84</v>
       </c>
       <c r="H263">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I263" t="s">
         <v>2268</v>
@@ -21763,7 +21763,7 @@
         <v>84</v>
       </c>
       <c r="H264">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I264" t="s">
         <v>2269</v>
@@ -21810,7 +21810,7 @@
         <v>84</v>
       </c>
       <c r="H265">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I265" t="s">
         <v>2270</v>
@@ -21857,7 +21857,7 @@
         <v>84</v>
       </c>
       <c r="H266">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I266" t="s">
         <v>2271</v>
@@ -21904,7 +21904,7 @@
         <v>84</v>
       </c>
       <c r="H267">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I267" t="s">
         <v>2272</v>
@@ -21951,7 +21951,7 @@
         <v>84</v>
       </c>
       <c r="H268">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I268" t="s">
         <v>2273</v>
@@ -21998,7 +21998,7 @@
         <v>84</v>
       </c>
       <c r="H269">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I269" t="s">
         <v>2274</v>
@@ -22045,7 +22045,7 @@
         <v>84</v>
       </c>
       <c r="H270">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I270" t="s">
         <v>2275</v>
@@ -22092,7 +22092,7 @@
         <v>84</v>
       </c>
       <c r="H271">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I271" t="s">
         <v>2276</v>
@@ -22139,7 +22139,7 @@
         <v>84</v>
       </c>
       <c r="H272">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I272" t="s">
         <v>2277</v>
@@ -22186,7 +22186,7 @@
         <v>83</v>
       </c>
       <c r="H273">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I273" t="s">
         <v>2321</v>
@@ -22233,7 +22233,7 @@
         <v>84</v>
       </c>
       <c r="H274">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I274" t="s">
         <v>2278</v>
@@ -22280,7 +22280,7 @@
         <v>84</v>
       </c>
       <c r="H275">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I275" t="s">
         <v>2279</v>
@@ -22327,7 +22327,7 @@
         <v>84</v>
       </c>
       <c r="H276">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I276" t="s">
         <v>2280</v>
@@ -22374,7 +22374,7 @@
         <v>84</v>
       </c>
       <c r="H277">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I277" t="s">
         <v>2281</v>
@@ -22421,7 +22421,7 @@
         <v>84</v>
       </c>
       <c r="H278">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I278" t="s">
         <v>2282</v>
@@ -22468,7 +22468,7 @@
         <v>84</v>
       </c>
       <c r="H279">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I279" t="s">
         <v>2283</v>
@@ -22515,7 +22515,7 @@
         <v>84</v>
       </c>
       <c r="H280">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I280" t="s">
         <v>2284</v>
@@ -22562,7 +22562,7 @@
         <v>84</v>
       </c>
       <c r="H281">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I281" t="s">
         <v>2285</v>
@@ -22609,7 +22609,7 @@
         <v>84</v>
       </c>
       <c r="H282">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I282" t="s">
         <v>2286</v>
@@ -22656,7 +22656,7 @@
         <v>84</v>
       </c>
       <c r="H283">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I283" t="s">
         <v>2287</v>
@@ -22703,7 +22703,7 @@
         <v>84</v>
       </c>
       <c r="H284">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I284" t="s">
         <v>2288</v>
@@ -22750,7 +22750,7 @@
         <v>84</v>
       </c>
       <c r="H285">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I285" t="s">
         <v>2289</v>
@@ -22797,7 +22797,7 @@
         <v>84</v>
       </c>
       <c r="H286">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I286" t="s">
         <v>2290</v>
@@ -22844,7 +22844,7 @@
         <v>84</v>
       </c>
       <c r="H287">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I287" t="s">
         <v>2291</v>
@@ -22891,7 +22891,7 @@
         <v>84</v>
       </c>
       <c r="H288">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I288" t="s">
         <v>2292</v>
@@ -22938,7 +22938,7 @@
         <v>84</v>
       </c>
       <c r="H289">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I289" t="s">
         <v>2293</v>
@@ -22985,7 +22985,7 @@
         <v>83</v>
       </c>
       <c r="H290">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I290" t="s">
         <v>2321</v>
@@ -23032,7 +23032,7 @@
         <v>84</v>
       </c>
       <c r="H291">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I291" t="s">
         <v>2294</v>
@@ -23079,7 +23079,7 @@
         <v>84</v>
       </c>
       <c r="H292">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I292" t="s">
         <v>2295</v>
@@ -23126,7 +23126,7 @@
         <v>84</v>
       </c>
       <c r="H293">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I293" t="s">
         <v>2296</v>
@@ -23173,7 +23173,7 @@
         <v>84</v>
       </c>
       <c r="H294">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I294" t="s">
         <v>2297</v>
@@ -23220,7 +23220,7 @@
         <v>84</v>
       </c>
       <c r="H295">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I295" t="s">
         <v>2298</v>
@@ -23267,7 +23267,7 @@
         <v>84</v>
       </c>
       <c r="H296">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I296" t="s">
         <v>2299</v>
@@ -23314,7 +23314,7 @@
         <v>83</v>
       </c>
       <c r="H297">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I297" t="s">
         <v>2321</v>
@@ -23361,7 +23361,7 @@
         <v>84</v>
       </c>
       <c r="H298">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I298" t="s">
         <v>2300</v>
@@ -23408,7 +23408,7 @@
         <v>84</v>
       </c>
       <c r="H299">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I299" t="s">
         <v>2301</v>
@@ -23455,7 +23455,7 @@
         <v>84</v>
       </c>
       <c r="H300">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I300" t="s">
         <v>2302</v>
@@ -23502,7 +23502,7 @@
         <v>84</v>
       </c>
       <c r="H301">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I301" t="s">
         <v>2303</v>
@@ -23549,7 +23549,7 @@
         <v>84</v>
       </c>
       <c r="H302">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I302" t="s">
         <v>2304</v>
@@ -23596,7 +23596,7 @@
         <v>84</v>
       </c>
       <c r="H303">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I303" t="s">
         <v>2305</v>
@@ -23643,7 +23643,7 @@
         <v>83</v>
       </c>
       <c r="H304">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I304" t="s">
         <v>2321</v>
@@ -23690,7 +23690,7 @@
         <v>84</v>
       </c>
       <c r="H305">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I305" t="s">
         <v>2306</v>
@@ -23737,7 +23737,7 @@
         <v>83</v>
       </c>
       <c r="H306">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I306" t="s">
         <v>2321</v>
@@ -23784,7 +23784,7 @@
         <v>84</v>
       </c>
       <c r="H307">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I307" t="s">
         <v>2307</v>
@@ -23831,7 +23831,7 @@
         <v>84</v>
       </c>
       <c r="H308">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I308" t="s">
         <v>2308</v>
@@ -23878,7 +23878,7 @@
         <v>84</v>
       </c>
       <c r="H309">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I309" t="s">
         <v>2309</v>
@@ -23925,7 +23925,7 @@
         <v>84</v>
       </c>
       <c r="H310">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I310" t="s">
         <v>2310</v>
@@ -23972,7 +23972,7 @@
         <v>83</v>
       </c>
       <c r="H311">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I311" t="s">
         <v>2321</v>
@@ -24019,7 +24019,7 @@
         <v>84</v>
       </c>
       <c r="H312">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I312" t="s">
         <v>2311</v>
@@ -24066,7 +24066,7 @@
         <v>84</v>
       </c>
       <c r="H313">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I313" t="s">
         <v>2312</v>
@@ -24113,7 +24113,7 @@
         <v>84</v>
       </c>
       <c r="H314">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I314" t="s">
         <v>2313</v>
@@ -24160,7 +24160,7 @@
         <v>84</v>
       </c>
       <c r="H315">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I315" t="s">
         <v>2314</v>
@@ -24207,7 +24207,7 @@
         <v>84</v>
       </c>
       <c r="H316">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I316" t="s">
         <v>2315</v>
@@ -24254,7 +24254,7 @@
         <v>84</v>
       </c>
       <c r="H317">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I317" t="s">
         <v>2316</v>
@@ -24301,7 +24301,7 @@
         <v>84</v>
       </c>
       <c r="H318">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I318" t="s">
         <v>2219</v>
@@ -24348,7 +24348,7 @@
         <v>84</v>
       </c>
       <c r="H319">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I319" t="s">
         <v>2220</v>
@@ -24395,7 +24395,7 @@
         <v>84</v>
       </c>
       <c r="H320">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I320" t="s">
         <v>2221</v>
@@ -24442,7 +24442,7 @@
         <v>84</v>
       </c>
       <c r="H321">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I321" t="s">
         <v>2222</v>
@@ -24489,7 +24489,7 @@
         <v>84</v>
       </c>
       <c r="H322">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I322" t="s">
         <v>2223</v>
@@ -24536,7 +24536,7 @@
         <v>84</v>
       </c>
       <c r="H323">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I323" t="s">
         <v>2224</v>
@@ -24583,7 +24583,7 @@
         <v>84</v>
       </c>
       <c r="H324">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I324" t="s">
         <v>2225</v>
@@ -24630,7 +24630,7 @@
         <v>84</v>
       </c>
       <c r="H325">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I325" t="s">
         <v>2226</v>
@@ -24677,7 +24677,7 @@
         <v>84</v>
       </c>
       <c r="H326">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I326" t="s">
         <v>2227</v>
@@ -24724,7 +24724,7 @@
         <v>84</v>
       </c>
       <c r="H327">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I327" t="s">
         <v>2228</v>
@@ -24771,7 +24771,7 @@
         <v>84</v>
       </c>
       <c r="H328">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I328" t="s">
         <v>2229</v>
@@ -24818,7 +24818,7 @@
         <v>84</v>
       </c>
       <c r="H329">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I329" t="s">
         <v>2230</v>
@@ -24865,7 +24865,7 @@
         <v>84</v>
       </c>
       <c r="H330">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I330" t="s">
         <v>2231</v>
@@ -24912,7 +24912,7 @@
         <v>84</v>
       </c>
       <c r="H331">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I331" t="s">
         <v>2232</v>
@@ -24959,7 +24959,7 @@
         <v>84</v>
       </c>
       <c r="H332">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I332" t="s">
         <v>2233</v>
@@ -25006,7 +25006,7 @@
         <v>84</v>
       </c>
       <c r="H333">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I333" t="s">
         <v>2234</v>
@@ -25053,7 +25053,7 @@
         <v>84</v>
       </c>
       <c r="H334">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I334" t="s">
         <v>2235</v>
@@ -25100,7 +25100,7 @@
         <v>84</v>
       </c>
       <c r="H335">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I335" t="s">
         <v>2236</v>
@@ -25147,7 +25147,7 @@
         <v>84</v>
       </c>
       <c r="H336">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I336" t="s">
         <v>2237</v>
@@ -25194,7 +25194,7 @@
         <v>84</v>
       </c>
       <c r="H337">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I337" t="s">
         <v>2238</v>
@@ -25241,7 +25241,7 @@
         <v>84</v>
       </c>
       <c r="H338">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I338" t="s">
         <v>2239</v>
@@ -25288,7 +25288,7 @@
         <v>84</v>
       </c>
       <c r="H339">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I339" t="s">
         <v>2240</v>
@@ -25335,7 +25335,7 @@
         <v>84</v>
       </c>
       <c r="H340">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I340" t="s">
         <v>2241</v>
@@ -25382,7 +25382,7 @@
         <v>84</v>
       </c>
       <c r="H341">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I341" t="s">
         <v>2242</v>
@@ -25429,7 +25429,7 @@
         <v>84</v>
       </c>
       <c r="H342">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I342" t="s">
         <v>2243</v>
@@ -25476,7 +25476,7 @@
         <v>84</v>
       </c>
       <c r="H343">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I343" t="s">
         <v>2244</v>
@@ -25523,7 +25523,7 @@
         <v>84</v>
       </c>
       <c r="H344">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I344" t="s">
         <v>2245</v>
@@ -25570,7 +25570,7 @@
         <v>84</v>
       </c>
       <c r="H345">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I345" t="s">
         <v>2246</v>
@@ -25617,7 +25617,7 @@
         <v>83</v>
       </c>
       <c r="H346">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I346" t="s">
         <v>2321</v>
@@ -25664,7 +25664,7 @@
         <v>83</v>
       </c>
       <c r="H347">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I347" t="s">
         <v>2321</v>
@@ -25711,7 +25711,7 @@
         <v>84</v>
       </c>
       <c r="H348">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I348" t="s">
         <v>2247</v>
@@ -25758,7 +25758,7 @@
         <v>84</v>
       </c>
       <c r="H349">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I349" t="s">
         <v>2248</v>
@@ -25805,7 +25805,7 @@
         <v>83</v>
       </c>
       <c r="H350">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I350" t="s">
         <v>2321</v>
@@ -25852,7 +25852,7 @@
         <v>84</v>
       </c>
       <c r="H351">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I351" t="s">
         <v>2249</v>
@@ -25899,7 +25899,7 @@
         <v>84</v>
       </c>
       <c r="H352">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I352" t="s">
         <v>2250</v>
@@ -25946,7 +25946,7 @@
         <v>84</v>
       </c>
       <c r="H353">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I353" t="s">
         <v>2251</v>
@@ -25993,7 +25993,7 @@
         <v>83</v>
       </c>
       <c r="H354">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I354" t="s">
         <v>2321</v>
@@ -26040,7 +26040,7 @@
         <v>84</v>
       </c>
       <c r="H355">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I355" t="s">
         <v>2252</v>
@@ -26087,7 +26087,7 @@
         <v>84</v>
       </c>
       <c r="H356">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I356" t="s">
         <v>2253</v>
@@ -26134,7 +26134,7 @@
         <v>84</v>
       </c>
       <c r="H357">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I357" t="s">
         <v>2254</v>
@@ -26181,7 +26181,7 @@
         <v>84</v>
       </c>
       <c r="H358">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I358" t="s">
         <v>2255</v>
@@ -26228,7 +26228,7 @@
         <v>84</v>
       </c>
       <c r="H359">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I359" t="s">
         <v>2256</v>
@@ -26275,7 +26275,7 @@
         <v>84</v>
       </c>
       <c r="H360">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I360" t="s">
         <v>2257</v>
@@ -26322,7 +26322,7 @@
         <v>84</v>
       </c>
       <c r="H361">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I361" t="s">
         <v>2258</v>
@@ -26369,7 +26369,7 @@
         <v>84</v>
       </c>
       <c r="H362">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I362" t="s">
         <v>2259</v>
@@ -26416,7 +26416,7 @@
         <v>84</v>
       </c>
       <c r="H363">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I363" t="s">
         <v>2260</v>
@@ -26463,7 +26463,7 @@
         <v>84</v>
       </c>
       <c r="H364">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I364" t="s">
         <v>2261</v>
@@ -26510,7 +26510,7 @@
         <v>84</v>
       </c>
       <c r="H365">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I365" t="s">
         <v>2262</v>
@@ -26557,7 +26557,7 @@
         <v>84</v>
       </c>
       <c r="H366">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I366" t="s">
         <v>2263</v>
@@ -26604,7 +26604,7 @@
         <v>84</v>
       </c>
       <c r="H367">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I367" t="s">
         <v>2233</v>
@@ -26651,7 +26651,7 @@
         <v>84</v>
       </c>
       <c r="H368">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I368" t="s">
         <v>2264</v>
@@ -26698,7 +26698,7 @@
         <v>83</v>
       </c>
       <c r="H369">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I369" t="s">
         <v>2321</v>
@@ -26745,7 +26745,7 @@
         <v>84</v>
       </c>
       <c r="H370">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I370" t="s">
         <v>2265</v>
@@ -26792,7 +26792,7 @@
         <v>83</v>
       </c>
       <c r="H371">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I371" t="s">
         <v>2321</v>
@@ -26839,7 +26839,7 @@
         <v>84</v>
       </c>
       <c r="H372">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I372" t="s">
         <v>2283</v>
@@ -26886,7 +26886,7 @@
         <v>84</v>
       </c>
       <c r="H373">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I373" t="s">
         <v>2266</v>
@@ -26933,7 +26933,7 @@
         <v>84</v>
       </c>
       <c r="H374">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I374" t="s">
         <v>2267</v>
@@ -26980,7 +26980,7 @@
         <v>84</v>
       </c>
       <c r="H375">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I375" t="s">
         <v>2268</v>
@@ -27027,7 +27027,7 @@
         <v>84</v>
       </c>
       <c r="H376">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I376" t="s">
         <v>2269</v>
@@ -27074,7 +27074,7 @@
         <v>84</v>
       </c>
       <c r="H377">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I377" t="s">
         <v>2270</v>
@@ -27121,7 +27121,7 @@
         <v>83</v>
       </c>
       <c r="H378">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I378" t="s">
         <v>2321</v>
@@ -27168,7 +27168,7 @@
         <v>84</v>
       </c>
       <c r="H379">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I379" t="s">
         <v>2271</v>
@@ -27215,7 +27215,7 @@
         <v>84</v>
       </c>
       <c r="H380">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I380" t="s">
         <v>2272</v>
@@ -27262,7 +27262,7 @@
         <v>84</v>
       </c>
       <c r="H381">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I381" t="s">
         <v>2273</v>
@@ -27309,7 +27309,7 @@
         <v>84</v>
       </c>
       <c r="H382">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I382" t="s">
         <v>2274</v>
@@ -27356,7 +27356,7 @@
         <v>84</v>
       </c>
       <c r="H383">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I383" t="s">
         <v>2275</v>
@@ -27403,7 +27403,7 @@
         <v>84</v>
       </c>
       <c r="H384">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I384" t="s">
         <v>2276</v>
@@ -27450,7 +27450,7 @@
         <v>84</v>
       </c>
       <c r="H385">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I385" t="s">
         <v>2277</v>
@@ -27497,7 +27497,7 @@
         <v>84</v>
       </c>
       <c r="H386">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I386" t="s">
         <v>2278</v>
@@ -27544,7 +27544,7 @@
         <v>84</v>
       </c>
       <c r="H387">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I387" t="s">
         <v>2279</v>
@@ -27591,7 +27591,7 @@
         <v>84</v>
       </c>
       <c r="H388">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I388" t="s">
         <v>2280</v>
@@ -27638,7 +27638,7 @@
         <v>84</v>
       </c>
       <c r="H389">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I389" t="s">
         <v>2281</v>
@@ -27685,7 +27685,7 @@
         <v>84</v>
       </c>
       <c r="H390">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I390" t="s">
         <v>2282</v>
@@ -27732,7 +27732,7 @@
         <v>84</v>
       </c>
       <c r="H391">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I391" t="s">
         <v>2283</v>
@@ -27779,7 +27779,7 @@
         <v>84</v>
       </c>
       <c r="H392">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I392" t="s">
         <v>2284</v>
@@ -27826,7 +27826,7 @@
         <v>84</v>
       </c>
       <c r="H393">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I393" t="s">
         <v>2285</v>
@@ -27873,7 +27873,7 @@
         <v>84</v>
       </c>
       <c r="H394">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I394" t="s">
         <v>2286</v>
@@ -27920,7 +27920,7 @@
         <v>84</v>
       </c>
       <c r="H395">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I395" t="s">
         <v>2287</v>
@@ -27967,7 +27967,7 @@
         <v>84</v>
       </c>
       <c r="H396">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I396" t="s">
         <v>2288</v>
@@ -28014,7 +28014,7 @@
         <v>84</v>
       </c>
       <c r="H397">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I397" t="s">
         <v>2289</v>
@@ -28061,7 +28061,7 @@
         <v>84</v>
       </c>
       <c r="H398">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I398" t="s">
         <v>2290</v>
@@ -28108,7 +28108,7 @@
         <v>84</v>
       </c>
       <c r="H399">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I399" t="s">
         <v>2291</v>
@@ -28155,7 +28155,7 @@
         <v>84</v>
       </c>
       <c r="H400">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I400" t="s">
         <v>2292</v>
@@ -28202,7 +28202,7 @@
         <v>84</v>
       </c>
       <c r="H401">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I401" t="s">
         <v>2293</v>
@@ -28249,7 +28249,7 @@
         <v>84</v>
       </c>
       <c r="H402">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I402" t="s">
         <v>2294</v>
@@ -28296,7 +28296,7 @@
         <v>84</v>
       </c>
       <c r="H403">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I403" t="s">
         <v>2295</v>
@@ -28343,7 +28343,7 @@
         <v>84</v>
       </c>
       <c r="H404">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I404" t="s">
         <v>2296</v>
@@ -28390,7 +28390,7 @@
         <v>84</v>
       </c>
       <c r="H405">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I405" t="s">
         <v>2297</v>
@@ -28437,7 +28437,7 @@
         <v>84</v>
       </c>
       <c r="H406">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I406" t="s">
         <v>2298</v>
@@ -28484,7 +28484,7 @@
         <v>84</v>
       </c>
       <c r="H407">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I407" t="s">
         <v>2299</v>
@@ -28531,7 +28531,7 @@
         <v>84</v>
       </c>
       <c r="H408">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I408" t="s">
         <v>2300</v>
@@ -28578,7 +28578,7 @@
         <v>84</v>
       </c>
       <c r="H409">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I409" t="s">
         <v>2301</v>
@@ -28625,7 +28625,7 @@
         <v>84</v>
       </c>
       <c r="H410">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I410" t="s">
         <v>2302</v>
@@ -28672,7 +28672,7 @@
         <v>84</v>
       </c>
       <c r="H411">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I411" t="s">
         <v>2303</v>
@@ -28719,7 +28719,7 @@
         <v>84</v>
       </c>
       <c r="H412">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I412" t="s">
         <v>2304</v>
@@ -28766,7 +28766,7 @@
         <v>84</v>
       </c>
       <c r="H413">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I413" t="s">
         <v>2305</v>
@@ -28813,7 +28813,7 @@
         <v>84</v>
       </c>
       <c r="H414">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I414" t="s">
         <v>2306</v>
@@ -28860,7 +28860,7 @@
         <v>84</v>
       </c>
       <c r="H415">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I415" t="s">
         <v>2307</v>
@@ -28907,7 +28907,7 @@
         <v>84</v>
       </c>
       <c r="H416">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I416" t="s">
         <v>2308</v>
@@ -28954,7 +28954,7 @@
         <v>84</v>
       </c>
       <c r="H417">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I417" t="s">
         <v>2309</v>
@@ -29001,7 +29001,7 @@
         <v>84</v>
       </c>
       <c r="H418">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I418" t="s">
         <v>2310</v>
@@ -29048,7 +29048,7 @@
         <v>84</v>
       </c>
       <c r="H419">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I419" t="s">
         <v>2311</v>
@@ -29095,7 +29095,7 @@
         <v>84</v>
       </c>
       <c r="H420">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I420" t="s">
         <v>2312</v>
@@ -29142,7 +29142,7 @@
         <v>84</v>
       </c>
       <c r="H421">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I421" t="s">
         <v>2313</v>
@@ -29189,7 +29189,7 @@
         <v>84</v>
       </c>
       <c r="H422">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I422" t="s">
         <v>2314</v>
@@ -29236,7 +29236,7 @@
         <v>84</v>
       </c>
       <c r="H423">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I423" t="s">
         <v>2315</v>
@@ -29283,7 +29283,7 @@
         <v>84</v>
       </c>
       <c r="H424">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I424" t="s">
         <v>2316</v>
@@ -29330,7 +29330,7 @@
         <v>84</v>
       </c>
       <c r="H425">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I425" t="s">
         <v>2219</v>
@@ -29377,7 +29377,7 @@
         <v>84</v>
       </c>
       <c r="H426">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I426" t="s">
         <v>2220</v>
@@ -29424,7 +29424,7 @@
         <v>84</v>
       </c>
       <c r="H427">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I427" t="s">
         <v>2221</v>
@@ -29471,7 +29471,7 @@
         <v>84</v>
       </c>
       <c r="H428">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I428" t="s">
         <v>2222</v>
@@ -29518,7 +29518,7 @@
         <v>84</v>
       </c>
       <c r="H429">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I429" t="s">
         <v>2223</v>
@@ -29565,7 +29565,7 @@
         <v>84</v>
       </c>
       <c r="H430">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I430" t="s">
         <v>2224</v>
@@ -29612,7 +29612,7 @@
         <v>84</v>
       </c>
       <c r="H431">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I431" t="s">
         <v>2225</v>
@@ -29659,7 +29659,7 @@
         <v>84</v>
       </c>
       <c r="H432">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I432" t="s">
         <v>2226</v>
@@ -29706,7 +29706,7 @@
         <v>84</v>
       </c>
       <c r="H433">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I433" t="s">
         <v>2227</v>
@@ -29753,7 +29753,7 @@
         <v>84</v>
       </c>
       <c r="H434">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I434" t="s">
         <v>2228</v>
@@ -29800,7 +29800,7 @@
         <v>84</v>
       </c>
       <c r="H435">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I435" t="s">
         <v>2229</v>
@@ -29847,7 +29847,7 @@
         <v>84</v>
       </c>
       <c r="H436">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I436" t="s">
         <v>2230</v>
@@ -29894,7 +29894,7 @@
         <v>84</v>
       </c>
       <c r="H437">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I437" t="s">
         <v>2231</v>
@@ -29941,7 +29941,7 @@
         <v>84</v>
       </c>
       <c r="H438">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I438" t="s">
         <v>2232</v>
@@ -29988,7 +29988,7 @@
         <v>84</v>
       </c>
       <c r="H439">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I439" t="s">
         <v>2233</v>
@@ -30035,7 +30035,7 @@
         <v>84</v>
       </c>
       <c r="H440">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I440" t="s">
         <v>2234</v>
@@ -30082,7 +30082,7 @@
         <v>84</v>
       </c>
       <c r="H441">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I441" t="s">
         <v>2235</v>
@@ -30129,7 +30129,7 @@
         <v>84</v>
       </c>
       <c r="H442">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I442" t="s">
         <v>2236</v>
@@ -30176,7 +30176,7 @@
         <v>84</v>
       </c>
       <c r="H443">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I443" t="s">
         <v>2237</v>
@@ -30223,7 +30223,7 @@
         <v>84</v>
       </c>
       <c r="H444">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I444" t="s">
         <v>2238</v>
@@ -30270,7 +30270,7 @@
         <v>84</v>
       </c>
       <c r="H445">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I445" t="s">
         <v>2239</v>
@@ -30317,7 +30317,7 @@
         <v>84</v>
       </c>
       <c r="H446">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I446" t="s">
         <v>2240</v>
@@ -30364,7 +30364,7 @@
         <v>83</v>
       </c>
       <c r="H447">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I447" t="s">
         <v>2321</v>
@@ -30411,7 +30411,7 @@
         <v>84</v>
       </c>
       <c r="H448">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I448" t="s">
         <v>2241</v>
@@ -30458,7 +30458,7 @@
         <v>84</v>
       </c>
       <c r="H449">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I449" t="s">
         <v>2242</v>
@@ -30505,7 +30505,7 @@
         <v>84</v>
       </c>
       <c r="H450">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I450" t="s">
         <v>2243</v>
@@ -30552,7 +30552,7 @@
         <v>84</v>
       </c>
       <c r="H451">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I451" t="s">
         <v>2244</v>
@@ -30599,7 +30599,7 @@
         <v>84</v>
       </c>
       <c r="H452">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I452" t="s">
         <v>2245</v>
@@ -30646,7 +30646,7 @@
         <v>84</v>
       </c>
       <c r="H453">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I453" t="s">
         <v>2246</v>
@@ -30693,7 +30693,7 @@
         <v>84</v>
       </c>
       <c r="H454">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I454" t="s">
         <v>2247</v>
@@ -30740,7 +30740,7 @@
         <v>84</v>
       </c>
       <c r="H455">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I455" t="s">
         <v>2248</v>
@@ -30787,7 +30787,7 @@
         <v>84</v>
       </c>
       <c r="H456">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I456" t="s">
         <v>2249</v>
@@ -30834,7 +30834,7 @@
         <v>83</v>
       </c>
       <c r="H457">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I457" t="s">
         <v>2321</v>
@@ -30881,7 +30881,7 @@
         <v>84</v>
       </c>
       <c r="H458">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I458" t="s">
         <v>2250</v>
@@ -30928,7 +30928,7 @@
         <v>84</v>
       </c>
       <c r="H459">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I459" t="s">
         <v>2251</v>
@@ -30975,7 +30975,7 @@
         <v>84</v>
       </c>
       <c r="H460">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I460" t="s">
         <v>2252</v>
@@ -31022,7 +31022,7 @@
         <v>83</v>
       </c>
       <c r="H461">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I461" t="s">
         <v>2321</v>
@@ -31069,7 +31069,7 @@
         <v>84</v>
       </c>
       <c r="H462">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I462" t="s">
         <v>2253</v>
@@ -31116,7 +31116,7 @@
         <v>84</v>
       </c>
       <c r="H463">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I463" t="s">
         <v>2254</v>
@@ -31163,7 +31163,7 @@
         <v>84</v>
       </c>
       <c r="H464">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I464" t="s">
         <v>2255</v>
@@ -31210,7 +31210,7 @@
         <v>84</v>
       </c>
       <c r="H465">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I465" t="s">
         <v>2256</v>
@@ -31257,7 +31257,7 @@
         <v>84</v>
       </c>
       <c r="H466">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I466" t="s">
         <v>2257</v>
@@ -31304,7 +31304,7 @@
         <v>84</v>
       </c>
       <c r="H467">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I467" t="s">
         <v>2258</v>
@@ -31351,7 +31351,7 @@
         <v>84</v>
       </c>
       <c r="H468">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I468" t="s">
         <v>2259</v>
@@ -31398,7 +31398,7 @@
         <v>84</v>
       </c>
       <c r="H469">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I469" t="s">
         <v>2260</v>
@@ -31445,7 +31445,7 @@
         <v>84</v>
       </c>
       <c r="H470">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I470" t="s">
         <v>2261</v>
@@ -31492,7 +31492,7 @@
         <v>83</v>
       </c>
       <c r="H471">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I471" t="s">
         <v>2321</v>
@@ -31539,7 +31539,7 @@
         <v>84</v>
       </c>
       <c r="H472">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I472" t="s">
         <v>2262</v>
@@ -31586,7 +31586,7 @@
         <v>83</v>
       </c>
       <c r="H473">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I473" t="s">
         <v>2321</v>
@@ -31633,7 +31633,7 @@
         <v>84</v>
       </c>
       <c r="H474">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I474" t="s">
         <v>2263</v>
@@ -31680,7 +31680,7 @@
         <v>83</v>
       </c>
       <c r="H475">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I475" t="s">
         <v>2321</v>
@@ -31727,7 +31727,7 @@
         <v>84</v>
       </c>
       <c r="H476">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I476" t="s">
         <v>2233</v>
@@ -31774,7 +31774,7 @@
         <v>84</v>
       </c>
       <c r="H477">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I477" t="s">
         <v>2264</v>
@@ -31821,7 +31821,7 @@
         <v>84</v>
       </c>
       <c r="H478">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I478" t="s">
         <v>2265</v>
@@ -31868,7 +31868,7 @@
         <v>83</v>
       </c>
       <c r="H479">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I479" t="s">
         <v>2321</v>
@@ -31915,7 +31915,7 @@
         <v>84</v>
       </c>
       <c r="H480">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I480" t="s">
         <v>2283</v>
@@ -31962,7 +31962,7 @@
         <v>84</v>
       </c>
       <c r="H481">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I481" t="s">
         <v>2266</v>
@@ -32009,7 +32009,7 @@
         <v>84</v>
       </c>
       <c r="H482">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I482" t="s">
         <v>2267</v>
@@ -32056,7 +32056,7 @@
         <v>84</v>
       </c>
       <c r="H483">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I483" t="s">
         <v>2268</v>
@@ -32103,7 +32103,7 @@
         <v>84</v>
       </c>
       <c r="H484">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I484" t="s">
         <v>2269</v>
@@ -32150,7 +32150,7 @@
         <v>84</v>
       </c>
       <c r="H485">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I485" t="s">
         <v>2270</v>
@@ -32197,7 +32197,7 @@
         <v>84</v>
       </c>
       <c r="H486">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I486" t="s">
         <v>2271</v>
@@ -32244,7 +32244,7 @@
         <v>84</v>
       </c>
       <c r="H487">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I487" t="s">
         <v>2272</v>
@@ -32291,7 +32291,7 @@
         <v>84</v>
       </c>
       <c r="H488">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I488" t="s">
         <v>2273</v>
@@ -32338,7 +32338,7 @@
         <v>84</v>
       </c>
       <c r="H489">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I489" t="s">
         <v>2274</v>
@@ -32385,7 +32385,7 @@
         <v>84</v>
       </c>
       <c r="H490">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I490" t="s">
         <v>2275</v>
@@ -32432,7 +32432,7 @@
         <v>84</v>
       </c>
       <c r="H491">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I491" t="s">
         <v>2276</v>
@@ -32479,7 +32479,7 @@
         <v>84</v>
       </c>
       <c r="H492">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I492" t="s">
         <v>2277</v>
@@ -32526,7 +32526,7 @@
         <v>84</v>
       </c>
       <c r="H493">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I493" t="s">
         <v>2278</v>
@@ -32573,7 +32573,7 @@
         <v>84</v>
       </c>
       <c r="H494">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I494" t="s">
         <v>2279</v>
@@ -32620,7 +32620,7 @@
         <v>84</v>
       </c>
       <c r="H495">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I495" t="s">
         <v>2280</v>
@@ -32667,7 +32667,7 @@
         <v>84</v>
       </c>
       <c r="H496">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I496" t="s">
         <v>2281</v>
@@ -32714,7 +32714,7 @@
         <v>84</v>
       </c>
       <c r="H497">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I497" t="s">
         <v>2282</v>
@@ -32761,7 +32761,7 @@
         <v>84</v>
       </c>
       <c r="H498">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I498" t="s">
         <v>2283</v>
@@ -32808,7 +32808,7 @@
         <v>84</v>
       </c>
       <c r="H499">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I499" t="s">
         <v>2284</v>
@@ -32855,7 +32855,7 @@
         <v>84</v>
       </c>
       <c r="H500">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I500" t="s">
         <v>2285</v>
@@ -32902,7 +32902,7 @@
         <v>84</v>
       </c>
       <c r="H501">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I501" t="s">
         <v>2286</v>
@@ -32949,7 +32949,7 @@
         <v>84</v>
       </c>
       <c r="H502">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I502" t="s">
         <v>2287</v>
@@ -32996,7 +32996,7 @@
         <v>84</v>
       </c>
       <c r="H503">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I503" t="s">
         <v>2288</v>
@@ -33043,7 +33043,7 @@
         <v>84</v>
       </c>
       <c r="H504">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I504" t="s">
         <v>2289</v>
@@ -33090,7 +33090,7 @@
         <v>84</v>
       </c>
       <c r="H505">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I505" t="s">
         <v>2290</v>
@@ -33137,7 +33137,7 @@
         <v>84</v>
       </c>
       <c r="H506">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I506" t="s">
         <v>2291</v>
@@ -33184,7 +33184,7 @@
         <v>84</v>
       </c>
       <c r="H507">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I507" t="s">
         <v>2292</v>
@@ -33231,7 +33231,7 @@
         <v>84</v>
       </c>
       <c r="H508">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I508" t="s">
         <v>2293</v>
@@ -33278,7 +33278,7 @@
         <v>84</v>
       </c>
       <c r="H509">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I509" t="s">
         <v>2294</v>
@@ -33325,7 +33325,7 @@
         <v>84</v>
       </c>
       <c r="H510">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I510" t="s">
         <v>2295</v>
@@ -33372,7 +33372,7 @@
         <v>84</v>
       </c>
       <c r="H511">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I511" t="s">
         <v>2296</v>
@@ -33419,7 +33419,7 @@
         <v>84</v>
       </c>
       <c r="H512">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I512" t="s">
         <v>2297</v>
@@ -33466,7 +33466,7 @@
         <v>84</v>
       </c>
       <c r="H513">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I513" t="s">
         <v>2298</v>
@@ -33513,7 +33513,7 @@
         <v>84</v>
       </c>
       <c r="H514">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I514" t="s">
         <v>2299</v>
@@ -33560,7 +33560,7 @@
         <v>84</v>
       </c>
       <c r="H515">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I515" t="s">
         <v>2300</v>
@@ -33607,7 +33607,7 @@
         <v>84</v>
       </c>
       <c r="H516">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I516" t="s">
         <v>2283</v>
@@ -33654,7 +33654,7 @@
         <v>85</v>
       </c>
       <c r="H517">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I517" t="s">
         <v>2898</v>
@@ -33701,7 +33701,7 @@
         <v>85</v>
       </c>
       <c r="H518">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I518" t="s">
         <v>2899</v>
@@ -33748,7 +33748,7 @@
         <v>85</v>
       </c>
       <c r="H519">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I519" t="s">
         <v>2900</v>
@@ -33795,7 +33795,7 @@
         <v>85</v>
       </c>
       <c r="H520">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I520" t="s">
         <v>2901</v>
@@ -33842,7 +33842,7 @@
         <v>85</v>
       </c>
       <c r="H521">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I521" t="s">
         <v>2902</v>
@@ -33889,7 +33889,7 @@
         <v>85</v>
       </c>
       <c r="H522">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I522" t="s">
         <v>2903</v>
@@ -33936,7 +33936,7 @@
         <v>85</v>
       </c>
       <c r="H523">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I523" t="s">
         <v>2904</v>
@@ -33983,7 +33983,7 @@
         <v>85</v>
       </c>
       <c r="H524">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I524" t="s">
         <v>2905</v>
@@ -34030,7 +34030,7 @@
         <v>85</v>
       </c>
       <c r="H525">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I525" t="s">
         <v>2906</v>
@@ -34077,7 +34077,7 @@
         <v>85</v>
       </c>
       <c r="H526">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I526" t="s">
         <v>2907</v>
@@ -34124,7 +34124,7 @@
         <v>85</v>
       </c>
       <c r="H527">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I527" t="s">
         <v>2908</v>
@@ -34171,7 +34171,7 @@
         <v>85</v>
       </c>
       <c r="H528">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I528" t="s">
         <v>2909</v>
@@ -34218,7 +34218,7 @@
         <v>85</v>
       </c>
       <c r="H529">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I529" t="s">
         <v>2910</v>
@@ -34265,7 +34265,7 @@
         <v>85</v>
       </c>
       <c r="H530">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I530" t="s">
         <v>2911</v>
@@ -34312,7 +34312,7 @@
         <v>85</v>
       </c>
       <c r="H531">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I531" t="s">
         <v>2912</v>
@@ -34359,7 +34359,7 @@
         <v>85</v>
       </c>
       <c r="H532">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I532" t="s">
         <v>2913</v>
@@ -34406,7 +34406,7 @@
         <v>85</v>
       </c>
       <c r="H533">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I533" t="s">
         <v>2914</v>
@@ -34453,7 +34453,7 @@
         <v>85</v>
       </c>
       <c r="H534">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I534" t="s">
         <v>2915</v>
@@ -34500,7 +34500,7 @@
         <v>85</v>
       </c>
       <c r="H535">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I535" t="s">
         <v>2916</v>
@@ -34547,7 +34547,7 @@
         <v>85</v>
       </c>
       <c r="H536">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I536" t="s">
         <v>2914</v>
@@ -34594,7 +34594,7 @@
         <v>85</v>
       </c>
       <c r="H537">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I537" t="s">
         <v>2917</v>
@@ -34641,7 +34641,7 @@
         <v>85</v>
       </c>
       <c r="H538">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I538" t="s">
         <v>2918</v>
@@ -34688,7 +34688,7 @@
         <v>85</v>
       </c>
       <c r="H539">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I539" t="s">
         <v>2919</v>
@@ -34735,7 +34735,7 @@
         <v>85</v>
       </c>
       <c r="H540">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I540" t="s">
         <v>2920</v>
@@ -34782,7 +34782,7 @@
         <v>85</v>
       </c>
       <c r="H541">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I541" t="s">
         <v>2921</v>
@@ -34829,7 +34829,7 @@
         <v>85</v>
       </c>
       <c r="H542">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I542" t="s">
         <v>2922</v>
@@ -34876,7 +34876,7 @@
         <v>85</v>
       </c>
       <c r="H543">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I543" t="s">
         <v>2923</v>
@@ -34923,7 +34923,7 @@
         <v>85</v>
       </c>
       <c r="H544">
-        <v>2022</v>
+        <v>606</v>
       </c>
       <c r="I544" t="s">
         <v>2924</v>
@@ -34970,7 +34970,7 @@
         <v>85</v>
       </c>
       <c r="H545">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I545" t="s">
         <v>2925</v>
@@ -35017,7 +35017,7 @@
         <v>85</v>
       </c>
       <c r="H546">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I546" t="s">
         <v>2926</v>
@@ -35064,7 +35064,7 @@
         <v>85</v>
       </c>
       <c r="H547">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I547" t="s">
         <v>2927</v>
@@ -35111,7 +35111,7 @@
         <v>85</v>
       </c>
       <c r="H548">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I548" t="s">
         <v>2928</v>
@@ -35158,7 +35158,7 @@
         <v>85</v>
       </c>
       <c r="H549">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I549" t="s">
         <v>2929</v>
@@ -35205,7 +35205,7 @@
         <v>85</v>
       </c>
       <c r="H550">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I550" t="s">
         <v>2930</v>
@@ -35252,7 +35252,7 @@
         <v>85</v>
       </c>
       <c r="H551">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I551" t="s">
         <v>2931</v>
@@ -35299,7 +35299,7 @@
         <v>85</v>
       </c>
       <c r="H552">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I552" t="s">
         <v>2932</v>
@@ -35346,7 +35346,7 @@
         <v>85</v>
       </c>
       <c r="H553">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I553" t="s">
         <v>2933</v>
@@ -35393,7 +35393,7 @@
         <v>85</v>
       </c>
       <c r="H554">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I554" t="s">
         <v>2934</v>
@@ -35440,7 +35440,7 @@
         <v>85</v>
       </c>
       <c r="H555">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I555" t="s">
         <v>2935</v>
@@ -35487,7 +35487,7 @@
         <v>85</v>
       </c>
       <c r="H556">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I556" t="s">
         <v>2936</v>
@@ -35534,7 +35534,7 @@
         <v>85</v>
       </c>
       <c r="H557">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I557" t="s">
         <v>2937</v>
@@ -35581,7 +35581,7 @@
         <v>85</v>
       </c>
       <c r="H558">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I558" t="s">
         <v>2938</v>
@@ -35628,7 +35628,7 @@
         <v>85</v>
       </c>
       <c r="H559">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I559" t="s">
         <v>2939</v>
@@ -35675,7 +35675,7 @@
         <v>85</v>
       </c>
       <c r="H560">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I560" t="s">
         <v>2940</v>
@@ -35722,7 +35722,7 @@
         <v>85</v>
       </c>
       <c r="H561">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I561" t="s">
         <v>2941</v>
@@ -35769,7 +35769,7 @@
         <v>85</v>
       </c>
       <c r="H562">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I562" t="s">
         <v>2942</v>
@@ -35816,7 +35816,7 @@
         <v>85</v>
       </c>
       <c r="H563">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I563" t="s">
         <v>2943</v>
@@ -35863,7 +35863,7 @@
         <v>85</v>
       </c>
       <c r="H564">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I564" t="s">
         <v>2944</v>
@@ -35910,7 +35910,7 @@
         <v>85</v>
       </c>
       <c r="H565">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I565" t="s">
         <v>2945</v>
@@ -35957,7 +35957,7 @@
         <v>85</v>
       </c>
       <c r="H566">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I566" t="s">
         <v>2946</v>
@@ -36004,7 +36004,7 @@
         <v>85</v>
       </c>
       <c r="H567">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I567" t="s">
         <v>2947</v>
@@ -36051,7 +36051,7 @@
         <v>85</v>
       </c>
       <c r="H568">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I568" t="s">
         <v>2948</v>
@@ -36098,7 +36098,7 @@
         <v>85</v>
       </c>
       <c r="H569">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I569" t="s">
         <v>2949</v>
@@ -36145,7 +36145,7 @@
         <v>85</v>
       </c>
       <c r="H570">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I570" t="s">
         <v>2950</v>
@@ -36192,7 +36192,7 @@
         <v>85</v>
       </c>
       <c r="H571">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I571" t="s">
         <v>2951</v>
@@ -36239,7 +36239,7 @@
         <v>85</v>
       </c>
       <c r="H572">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I572" t="s">
         <v>2952</v>
@@ -36286,7 +36286,7 @@
         <v>85</v>
       </c>
       <c r="H573">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I573" t="s">
         <v>2953</v>
@@ -36333,7 +36333,7 @@
         <v>85</v>
       </c>
       <c r="H574">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I574" t="s">
         <v>2954</v>
@@ -36380,7 +36380,7 @@
         <v>85</v>
       </c>
       <c r="H575">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I575" t="s">
         <v>2955</v>
@@ -36427,7 +36427,7 @@
         <v>85</v>
       </c>
       <c r="H576">
-        <v>2021</v>
+        <v>505</v>
       </c>
       <c r="I576" t="s">
         <v>2956</v>
